--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.962526798248291</v>
+        <v>3.042735576629639</v>
       </c>
       <c r="C2">
-        <v>-12.4136962890625</v>
+        <v>-12.35656929016113</v>
       </c>
       <c r="D2">
-        <v>7.529349327087402</v>
+        <v>6.432065486907959</v>
       </c>
       <c r="E2">
-        <v>1.34993052482605</v>
+        <v>1.692261695861816</v>
       </c>
       <c r="F2">
-        <v>0.429832249879837</v>
+        <v>0.8169599175453186</v>
       </c>
       <c r="G2">
-        <v>2.632139921188354</v>
+        <v>1.586827158927917</v>
       </c>
       <c r="H2">
-        <v>2.737445831298828</v>
+        <v>2.048577070236206</v>
       </c>
       <c r="I2">
-        <v>2.205706119537354</v>
+        <v>2.124902009963989</v>
       </c>
       <c r="J2">
-        <v>-5.071004867553711</v>
+        <v>-6.184003353118896</v>
       </c>
       <c r="K2">
-        <v>-0.1869069337844849</v>
+        <v>-0.555433452129364</v>
       </c>
       <c r="L2">
-        <v>4.027901649475098</v>
+        <v>3.373550415039062</v>
       </c>
       <c r="M2">
-        <v>1.652290940284729</v>
+        <v>0.6692794561386108</v>
       </c>
       <c r="N2">
-        <v>-2.144444942474365</v>
+        <v>-1.609961867332458</v>
       </c>
       <c r="O2">
-        <v>-1.632479190826416</v>
+        <v>-0.8660189509391785</v>
       </c>
       <c r="P2">
-        <v>4.061133861541748</v>
+        <v>4.794471263885498</v>
       </c>
       <c r="Q2">
-        <v>2.465577840805054</v>
+        <v>2.26819372177124</v>
       </c>
       <c r="R2">
-        <v>-0.5582136511802673</v>
+        <v>-0.9689325094223022</v>
       </c>
       <c r="S2">
-        <v>4.225120067596436</v>
+        <v>3.777914047241211</v>
       </c>
       <c r="T2">
-        <v>-3.217479705810547</v>
+        <v>-2.582138538360596</v>
       </c>
       <c r="U2">
-        <v>-8.684784889221191</v>
+        <v>-9.753493309020996</v>
       </c>
       <c r="V2">
-        <v>-2.220895528793335</v>
+        <v>-1.44310200214386</v>
       </c>
       <c r="W2">
-        <v>-6.9591383934021</v>
+        <v>-6.724356174468994</v>
       </c>
       <c r="X2">
-        <v>-2.091822147369385</v>
+        <v>-1.135756969451904</v>
       </c>
       <c r="Y2">
-        <v>-5.273787498474121</v>
+        <v>-5.269349575042725</v>
       </c>
       <c r="Z2">
-        <v>-8.111651420593262</v>
+        <v>-8.016641616821289</v>
       </c>
       <c r="AA2">
-        <v>0.04316546022891998</v>
+        <v>0.07763166725635529</v>
       </c>
       <c r="AB2">
-        <v>7.633736610412598</v>
+        <v>7.92697286605835</v>
       </c>
       <c r="AC2">
-        <v>-3.780715703964233</v>
+        <v>-3.957793474197388</v>
       </c>
       <c r="AD2">
-        <v>-1.338339328765869</v>
+        <v>-1.03758978843689</v>
       </c>
       <c r="AE2">
-        <v>-8.775899887084961</v>
+        <v>-9.692141532897949</v>
       </c>
       <c r="AF2">
-        <v>1.064929246902466</v>
+        <v>0.6208353042602539</v>
       </c>
       <c r="AG2">
-        <v>-0.966217577457428</v>
+        <v>-1.490502119064331</v>
       </c>
       <c r="AH2">
-        <v>-21.80608367919922</v>
+        <v>-21.90201759338379</v>
       </c>
       <c r="AI2">
-        <v>-5.582672595977783</v>
+        <v>-5.303572177886963</v>
       </c>
       <c r="AJ2">
-        <v>-1.122793078422546</v>
+        <v>-1.795315265655518</v>
       </c>
       <c r="AK2">
-        <v>-0.7893528938293457</v>
+        <v>0.03791442885994911</v>
       </c>
       <c r="AL2">
-        <v>-2.064817905426025</v>
+        <v>-2.267203330993652</v>
       </c>
       <c r="AM2">
-        <v>4.799717903137207</v>
+        <v>4.574203968048096</v>
       </c>
       <c r="AN2">
-        <v>14.28843212127686</v>
+        <v>14.24455165863037</v>
       </c>
       <c r="AO2">
-        <v>-4.921441555023193</v>
+        <v>-4.444002151489258</v>
       </c>
       <c r="AP2">
-        <v>-1.183558583259583</v>
+        <v>-0.784572422504425</v>
       </c>
       <c r="AQ2">
-        <v>-2.375866174697876</v>
+        <v>-3.17216682434082</v>
       </c>
       <c r="AR2">
-        <v>3.389827251434326</v>
+        <v>4.338255405426025</v>
       </c>
       <c r="AS2">
-        <v>-2.369367599487305</v>
+        <v>-2.610775232315063</v>
       </c>
       <c r="AT2">
-        <v>5.511303901672363</v>
+        <v>5.997921466827393</v>
       </c>
       <c r="AU2">
-        <v>-10.94079303741455</v>
+        <v>-10.74818706512451</v>
       </c>
       <c r="AV2">
-        <v>6.32315731048584</v>
+        <v>6.507283687591553</v>
       </c>
       <c r="AW2">
-        <v>-1.023345947265625</v>
+        <v>-0.517242431640625</v>
       </c>
       <c r="AX2">
-        <v>0.5654435753822327</v>
+        <v>-0.05775810405611992</v>
       </c>
       <c r="AY2">
-        <v>7.319427967071533</v>
+        <v>6.64848518371582</v>
       </c>
       <c r="AZ2">
-        <v>-9.529209136962891</v>
+        <v>-10.15317630767822</v>
       </c>
       <c r="BA2">
-        <v>-18.64382171630859</v>
+        <v>-18.29981994628906</v>
       </c>
       <c r="BB2">
-        <v>4.794452667236328</v>
+        <v>4.754391193389893</v>
       </c>
       <c r="BC2">
-        <v>2.289861440658569</v>
+        <v>1.531430721282959</v>
       </c>
       <c r="BD2">
-        <v>-0.8419564962387085</v>
+        <v>-0.5759485363960266</v>
       </c>
       <c r="BE2">
-        <v>0.5642567276954651</v>
+        <v>1.557796239852905</v>
       </c>
       <c r="BF2">
-        <v>7.187626361846924</v>
+        <v>7.035579204559326</v>
       </c>
       <c r="BG2">
-        <v>-0.9984574913978577</v>
+        <v>-1.006943345069885</v>
       </c>
       <c r="BH2">
-        <v>1.192297577857971</v>
+        <v>0.2699197828769684</v>
       </c>
       <c r="BI2">
-        <v>-1.716512084007263</v>
+        <v>-1.071452856063843</v>
       </c>
       <c r="BJ2">
-        <v>-1.66315221786499</v>
+        <v>-2.314446926116943</v>
       </c>
       <c r="BK2">
-        <v>0.8362341523170471</v>
+        <v>0.7820258140563965</v>
       </c>
       <c r="BL2">
-        <v>4.164932250976562</v>
+        <v>3.243653059005737</v>
       </c>
       <c r="BM2">
-        <v>5.729439258575439</v>
+        <v>5.401008605957031</v>
       </c>
       <c r="BN2">
-        <v>-13.08476638793945</v>
+        <v>-14.12621784210205</v>
       </c>
       <c r="BO2">
-        <v>-5.999102115631104</v>
+        <v>-5.943454265594482</v>
       </c>
       <c r="BP2">
-        <v>-6.533312320709229</v>
+        <v>-7.217269897460938</v>
       </c>
       <c r="BQ2">
-        <v>10.297287940979</v>
+        <v>10.74917888641357</v>
       </c>
       <c r="BR2">
-        <v>-2.637315511703491</v>
+        <v>-2.306282043457031</v>
       </c>
       <c r="BS2">
-        <v>-0.9062245488166809</v>
+        <v>-1.720572948455811</v>
       </c>
       <c r="BT2">
-        <v>0.1641245782375336</v>
+        <v>0.2447539269924164</v>
       </c>
       <c r="BU2">
-        <v>1.160122990608215</v>
+        <v>0.6416780948638916</v>
       </c>
       <c r="BV2">
-        <v>-3.876181840896606</v>
+        <v>-3.605655670166016</v>
       </c>
       <c r="BW2">
-        <v>-0.8627155423164368</v>
+        <v>-1.123345971107483</v>
       </c>
       <c r="BX2">
-        <v>-12.55077838897705</v>
+        <v>-13.14815425872803</v>
       </c>
       <c r="BY2">
-        <v>-2.879478216171265</v>
+        <v>-2.287291526794434</v>
       </c>
       <c r="BZ2">
-        <v>-3.440567016601562</v>
+        <v>-4.515985488891602</v>
       </c>
       <c r="CA2">
-        <v>-6.726045608520508</v>
+        <v>-6.628956317901611</v>
       </c>
       <c r="CB2">
-        <v>-2.815956115722656</v>
+        <v>-3.030164003372192</v>
       </c>
       <c r="CC2">
-        <v>-1.539255142211914</v>
+        <v>-1.533902406692505</v>
       </c>
       <c r="CD2">
-        <v>1.566142082214355</v>
+        <v>1.772123217582703</v>
       </c>
       <c r="CE2">
-        <v>8.69611930847168</v>
+        <v>9.015261650085449</v>
       </c>
       <c r="CF2">
-        <v>-12.32947540283203</v>
+        <v>-12.51193237304688</v>
       </c>
       <c r="CG2">
-        <v>-2.286664724349976</v>
+        <v>-2.766964912414551</v>
       </c>
       <c r="CH2">
-        <v>5.744451999664307</v>
+        <v>5.501554489135742</v>
       </c>
       <c r="CI2">
-        <v>-1.613128900527954</v>
+        <v>-1.26964545249939</v>
       </c>
       <c r="CJ2">
-        <v>-4.408124923706055</v>
+        <v>-5.391940116882324</v>
       </c>
       <c r="CK2">
-        <v>-2.170755624771118</v>
+        <v>-2.404144525527954</v>
       </c>
       <c r="CL2">
-        <v>2.743968486785889</v>
+        <v>2.974649906158447</v>
       </c>
       <c r="CM2">
-        <v>-8.100824356079102</v>
+        <v>-7.385412693023682</v>
       </c>
       <c r="CN2">
-        <v>-0.1245189383625984</v>
+        <v>0.1466758996248245</v>
       </c>
       <c r="CO2">
-        <v>-1.088049411773682</v>
+        <v>-0.9506002068519592</v>
       </c>
       <c r="CP2">
-        <v>2.297775268554688</v>
+        <v>2.807171583175659</v>
       </c>
       <c r="CQ2">
-        <v>-0.7693468332290649</v>
+        <v>2.508287434466183E-05</v>
       </c>
       <c r="CR2">
-        <v>-0.1488052010536194</v>
+        <v>-1.253363013267517</v>
       </c>
       <c r="CS2">
-        <v>0.9961106181144714</v>
+        <v>1.761257171630859</v>
       </c>
       <c r="CT2">
-        <v>-1.886687159538269</v>
+        <v>-1.959236264228821</v>
       </c>
       <c r="CU2">
-        <v>-1.915112972259521</v>
+        <v>-2.199513673782349</v>
       </c>
       <c r="CV2">
-        <v>2.262465715408325</v>
+        <v>1.915885210037231</v>
       </c>
       <c r="CW2">
-        <v>-7.08871603012085</v>
+        <v>-7.849130630493164</v>
       </c>
       <c r="CX2">
-        <v>1.602418899536133</v>
+        <v>1.017053484916687</v>
       </c>
       <c r="CY2">
-        <v>-1.425439238548279</v>
+        <v>-1.263714790344238</v>
       </c>
       <c r="CZ2">
-        <v>-0.6867047548294067</v>
+        <v>-0.9025990962982178</v>
       </c>
       <c r="DA2">
-        <v>-2.982794523239136</v>
+        <v>-3.060524702072144</v>
       </c>
       <c r="DB2">
-        <v>-13.08278751373291</v>
+        <v>-13.47349166870117</v>
       </c>
       <c r="DC2">
-        <v>3.000053644180298</v>
+        <v>3.65841007232666</v>
       </c>
       <c r="DD2">
-        <v>-18.20715522766113</v>
+        <v>-18.98183250427246</v>
       </c>
       <c r="DE2">
-        <v>2.292044878005981</v>
+        <v>2.849718332290649</v>
       </c>
       <c r="DF2">
-        <v>-1.250848412513733</v>
+        <v>-2.166646480560303</v>
       </c>
       <c r="DG2">
-        <v>-0.4746288061141968</v>
+        <v>-1.086906671524048</v>
       </c>
       <c r="DH2">
-        <v>-1.394976258277893</v>
+        <v>-0.8801712989807129</v>
       </c>
       <c r="DI2">
-        <v>0.5780419707298279</v>
+        <v>0.7735837697982788</v>
       </c>
       <c r="DJ2">
-        <v>5.953411102294922</v>
+        <v>5.048298358917236</v>
       </c>
       <c r="DK2">
-        <v>-0.3116400837898254</v>
+        <v>-1.142318964004517</v>
       </c>
       <c r="DL2">
-        <v>-2.953502416610718</v>
+        <v>-3.339926719665527</v>
       </c>
       <c r="DM2">
-        <v>4.767801761627197</v>
+        <v>4.838564395904541</v>
       </c>
       <c r="DN2">
-        <v>-1.445967674255371</v>
+        <v>-1.472533106803894</v>
       </c>
       <c r="DO2">
-        <v>-3.124987363815308</v>
+        <v>-2.937897443771362</v>
       </c>
       <c r="DP2">
-        <v>10.06208324432373</v>
+        <v>9.142996788024902</v>
       </c>
       <c r="DQ2">
-        <v>1.205196619033813</v>
+        <v>1.588423490524292</v>
       </c>
       <c r="DR2">
-        <v>0.9563366174697876</v>
+        <v>1.4721440076828</v>
       </c>
       <c r="DS2">
-        <v>0.3388116359710693</v>
+        <v>0.6816349029541016</v>
       </c>
       <c r="DT2">
-        <v>-0.09725106507539749</v>
+        <v>-1.065715432167053</v>
       </c>
       <c r="DU2">
-        <v>0.87847501039505</v>
+        <v>0.1527542322874069</v>
       </c>
       <c r="DV2">
-        <v>0.7993921637535095</v>
+        <v>0.5635855793952942</v>
       </c>
       <c r="DW2">
-        <v>-1.079626202583313</v>
+        <v>-1.296027421951294</v>
       </c>
       <c r="DX2">
-        <v>-1.511254787445068</v>
+        <v>-1.659558773040771</v>
       </c>
       <c r="DY2">
-        <v>5.990393161773682</v>
+        <v>4.922591209411621</v>
       </c>
       <c r="DZ2">
-        <v>-0.3433858752250671</v>
+        <v>0.8994207978248596</v>
       </c>
       <c r="EA2">
-        <v>7.544473648071289</v>
+        <v>6.543095588684082</v>
       </c>
       <c r="EB2">
-        <v>-1.017038702964783</v>
+        <v>-0.8313239216804504</v>
       </c>
       <c r="EC2">
-        <v>-2.136141538619995</v>
+        <v>-1.083442091941833</v>
       </c>
       <c r="ED2">
-        <v>-5.978492259979248</v>
+        <v>-5.319017887115479</v>
       </c>
       <c r="EE2">
-        <v>0.3797392845153809</v>
+        <v>0.109506219625473</v>
       </c>
       <c r="EF2">
-        <v>5.89824914932251</v>
+        <v>6.240195751190186</v>
       </c>
       <c r="EG2">
-        <v>0.5628167986869812</v>
+        <v>0.2667094171047211</v>
       </c>
       <c r="EH2">
-        <v>-7.753884315490723</v>
+        <v>-8.742645263671875</v>
       </c>
       <c r="EI2">
-        <v>-1.165853977203369</v>
+        <v>-2.102946043014526</v>
       </c>
       <c r="EJ2">
-        <v>0.7157477140426636</v>
+        <v>1.478997468948364</v>
       </c>
       <c r="EK2">
-        <v>1.427241444587708</v>
+        <v>1.538753509521484</v>
       </c>
       <c r="EL2">
-        <v>-0.5377899408340454</v>
+        <v>-0.410337895154953</v>
       </c>
       <c r="EM2">
-        <v>5.814492702484131</v>
+        <v>5.448184490203857</v>
       </c>
       <c r="EN2">
-        <v>-0.7044481635093689</v>
+        <v>-0.1664102673530579</v>
       </c>
       <c r="EO2">
-        <v>3.416279792785645</v>
+        <v>2.890270233154297</v>
       </c>
       <c r="EP2">
-        <v>2.273910760879517</v>
+        <v>2.79928994178772</v>
       </c>
       <c r="EQ2">
-        <v>5.562565803527832</v>
+        <v>5.439279079437256</v>
       </c>
       <c r="ER2">
-        <v>-1.581548094749451</v>
+        <v>-1.134018778800964</v>
       </c>
       <c r="ES2">
-        <v>-0.6849592328071594</v>
+        <v>-0.8801404237747192</v>
       </c>
       <c r="ET2">
-        <v>-0.5091180801391602</v>
+        <v>0.2327388674020767</v>
       </c>
       <c r="EU2">
-        <v>-3.237560272216797</v>
+        <v>-3.407785892486572</v>
       </c>
       <c r="EV2">
-        <v>0.3271602094173431</v>
+        <v>1.120844841003418</v>
       </c>
       <c r="EW2">
-        <v>-4.271910190582275</v>
+        <v>-5.348414421081543</v>
       </c>
       <c r="EX2">
-        <v>-5.0141282081604</v>
+        <v>-4.818989276885986</v>
       </c>
       <c r="EY2">
-        <v>0.7764528393745422</v>
+        <v>0.4427134990692139</v>
       </c>
       <c r="EZ2">
-        <v>-5.030831813812256</v>
+        <v>-6.123311519622803</v>
       </c>
       <c r="FA2">
-        <v>-0.2819657325744629</v>
+        <v>0.4889549612998962</v>
       </c>
       <c r="FB2">
-        <v>0.5078793168067932</v>
+        <v>1.000033259391785</v>
       </c>
       <c r="FC2">
-        <v>-1.8482266664505</v>
+        <v>-1.302518010139465</v>
       </c>
       <c r="FD2">
-        <v>-1.465513229370117</v>
+        <v>-1.567839860916138</v>
       </c>
       <c r="FE2">
-        <v>10.3455924987793</v>
+        <v>10.48838233947754</v>
       </c>
       <c r="FF2">
-        <v>-11.37760543823242</v>
+        <v>-11.1458215713501</v>
       </c>
       <c r="FG2">
-        <v>-3.854763269424438</v>
+        <v>-3.655674457550049</v>
       </c>
       <c r="FH2">
-        <v>1.267745852470398</v>
+        <v>2.330708742141724</v>
       </c>
       <c r="FI2">
-        <v>6.921427249908447</v>
+        <v>6.467887878417969</v>
       </c>
       <c r="FJ2">
-        <v>-0.9993689656257629</v>
+        <v>-0.6310486197471619</v>
       </c>
       <c r="FK2">
-        <v>-17.06916618347168</v>
+        <v>-16.39001655578613</v>
       </c>
       <c r="FL2">
-        <v>11.73357677459717</v>
+        <v>11.35270690917969</v>
       </c>
       <c r="FM2">
-        <v>6.236509799957275</v>
+        <v>5.38170051574707</v>
       </c>
       <c r="FN2">
-        <v>-7.462591171264648</v>
+        <v>-7.914076328277588</v>
       </c>
       <c r="FO2">
-        <v>0.3035010993480682</v>
+        <v>-0.06409040093421936</v>
       </c>
       <c r="FP2">
-        <v>0.2259261906147003</v>
+        <v>0.8071499466896057</v>
       </c>
       <c r="FQ2">
-        <v>0.5410711169242859</v>
+        <v>0.6843048930168152</v>
       </c>
       <c r="FR2">
-        <v>1.520494937896729</v>
+        <v>1.94468355178833</v>
       </c>
       <c r="FS2">
-        <v>1.342368125915527</v>
+        <v>1.374760985374451</v>
       </c>
       <c r="FT2">
-        <v>3.207267761230469</v>
+        <v>3.165632963180542</v>
       </c>
       <c r="FU2">
-        <v>-5.155099391937256</v>
+        <v>-4.517595767974854</v>
       </c>
       <c r="FV2">
-        <v>-1.293396592140198</v>
+        <v>-1.530465245246887</v>
       </c>
       <c r="FW2">
-        <v>1.881739974021912</v>
+        <v>2.041462182998657</v>
       </c>
       <c r="FX2">
-        <v>2.014777183532715</v>
+        <v>2.145537376403809</v>
       </c>
       <c r="FY2">
-        <v>-0.9284499883651733</v>
+        <v>-0.4757093191146851</v>
       </c>
       <c r="FZ2">
-        <v>1.006169557571411</v>
+        <v>1.081135153770447</v>
       </c>
       <c r="GA2">
-        <v>5.74018383026123</v>
+        <v>5.175164699554443</v>
       </c>
       <c r="GB2">
-        <v>-0.4681733846664429</v>
+        <v>-0.2658324837684631</v>
       </c>
       <c r="GC2">
-        <v>7.596876621246338</v>
+        <v>7.533943653106689</v>
       </c>
       <c r="GD2">
-        <v>-6.374805927276611</v>
+        <v>-5.956149101257324</v>
       </c>
       <c r="GE2">
-        <v>0.4388304948806763</v>
+        <v>0.600904107093811</v>
       </c>
       <c r="GF2">
-        <v>-0.05346811562776566</v>
+        <v>-0.9528984427452087</v>
       </c>
       <c r="GG2">
-        <v>-2.577519416809082</v>
+        <v>-2.889695167541504</v>
       </c>
       <c r="GH2">
-        <v>-0.489109605550766</v>
+        <v>-1.58118200302124</v>
       </c>
       <c r="GI2">
-        <v>-3.136499881744385</v>
+        <v>-3.538032293319702</v>
       </c>
       <c r="GJ2">
-        <v>-1.860635995864868</v>
+        <v>-2.589232206344604</v>
       </c>
       <c r="GK2">
-        <v>-2.109062910079956</v>
+        <v>-2.321836948394775</v>
       </c>
       <c r="GL2">
-        <v>3.334752798080444</v>
+        <v>3.363181352615356</v>
       </c>
       <c r="GM2">
-        <v>-5.704028129577637</v>
+        <v>-5.025119304656982</v>
       </c>
       <c r="GN2">
-        <v>0.807334303855896</v>
+        <v>1.109463572502136</v>
       </c>
       <c r="GO2">
-        <v>12.64262104034424</v>
+        <v>12.15724945068359</v>
       </c>
       <c r="GP2">
-        <v>-1.132633447647095</v>
+        <v>-1.041086196899414</v>
       </c>
       <c r="GQ2">
-        <v>1.016247510910034</v>
+        <v>0.3010801076889038</v>
       </c>
       <c r="GR2">
-        <v>0.1294034868478775</v>
+        <v>0.1198296919465065</v>
       </c>
       <c r="GS2">
-        <v>-3.627227067947388</v>
+        <v>-3.73049521446228</v>
       </c>
       <c r="GT2">
-        <v>-0.3353998959064484</v>
+        <v>-0.3695876598358154</v>
       </c>
       <c r="GU2">
-        <v>1.627392530441284</v>
+        <v>2.005083560943604</v>
       </c>
       <c r="GV2">
-        <v>-0.3795214593410492</v>
+        <v>0.1727705746889114</v>
       </c>
       <c r="GW2">
-        <v>-6.729218006134033</v>
+        <v>-7.413331031799316</v>
       </c>
       <c r="GX2">
-        <v>-0.03082402423024178</v>
+        <v>-0.2713660299777985</v>
       </c>
       <c r="GY2">
-        <v>-1.668086767196655</v>
+        <v>-1.352112174034119</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.042735576629639</v>
+        <v>3.962526798248291</v>
       </c>
       <c r="C2">
-        <v>-12.35656929016113</v>
+        <v>-12.4136962890625</v>
       </c>
       <c r="D2">
-        <v>6.432065486907959</v>
+        <v>7.529349327087402</v>
       </c>
       <c r="E2">
-        <v>1.692261695861816</v>
+        <v>1.34993052482605</v>
       </c>
       <c r="F2">
-        <v>0.8169599175453186</v>
+        <v>0.429832249879837</v>
       </c>
       <c r="G2">
-        <v>1.586827158927917</v>
+        <v>2.632139921188354</v>
       </c>
       <c r="H2">
-        <v>2.048577070236206</v>
+        <v>2.737445831298828</v>
       </c>
       <c r="I2">
-        <v>2.124902009963989</v>
+        <v>2.205706119537354</v>
       </c>
       <c r="J2">
-        <v>-6.184003353118896</v>
+        <v>-5.071004867553711</v>
       </c>
       <c r="K2">
-        <v>-0.555433452129364</v>
+        <v>-0.1869069337844849</v>
       </c>
       <c r="L2">
-        <v>3.373550415039062</v>
+        <v>4.027901649475098</v>
       </c>
       <c r="M2">
-        <v>0.6692794561386108</v>
+        <v>1.652290940284729</v>
       </c>
       <c r="N2">
-        <v>-1.609961867332458</v>
+        <v>-2.144444942474365</v>
       </c>
       <c r="O2">
-        <v>-0.8660189509391785</v>
+        <v>-1.632479190826416</v>
       </c>
       <c r="P2">
-        <v>4.794471263885498</v>
+        <v>4.061133861541748</v>
       </c>
       <c r="Q2">
-        <v>2.26819372177124</v>
+        <v>2.465577840805054</v>
       </c>
       <c r="R2">
-        <v>-0.9689325094223022</v>
+        <v>-0.5582136511802673</v>
       </c>
       <c r="S2">
-        <v>3.777914047241211</v>
+        <v>4.225120067596436</v>
       </c>
       <c r="T2">
-        <v>-2.582138538360596</v>
+        <v>-3.217479705810547</v>
       </c>
       <c r="U2">
-        <v>-9.753493309020996</v>
+        <v>-8.684784889221191</v>
       </c>
       <c r="V2">
-        <v>-1.44310200214386</v>
+        <v>-2.220895528793335</v>
       </c>
       <c r="W2">
-        <v>-6.724356174468994</v>
+        <v>-6.9591383934021</v>
       </c>
       <c r="X2">
-        <v>-1.135756969451904</v>
+        <v>-2.091822147369385</v>
       </c>
       <c r="Y2">
-        <v>-5.269349575042725</v>
+        <v>-5.273787498474121</v>
       </c>
       <c r="Z2">
-        <v>-8.016641616821289</v>
+        <v>-8.111651420593262</v>
       </c>
       <c r="AA2">
-        <v>0.07763166725635529</v>
+        <v>0.04316546022891998</v>
       </c>
       <c r="AB2">
-        <v>7.92697286605835</v>
+        <v>7.633736610412598</v>
       </c>
       <c r="AC2">
-        <v>-3.957793474197388</v>
+        <v>-3.780715703964233</v>
       </c>
       <c r="AD2">
-        <v>-1.03758978843689</v>
+        <v>-1.338339328765869</v>
       </c>
       <c r="AE2">
-        <v>-9.692141532897949</v>
+        <v>-8.775899887084961</v>
       </c>
       <c r="AF2">
-        <v>0.6208353042602539</v>
+        <v>1.064929246902466</v>
       </c>
       <c r="AG2">
-        <v>-1.490502119064331</v>
+        <v>-0.966217577457428</v>
       </c>
       <c r="AH2">
-        <v>-21.90201759338379</v>
+        <v>-21.80608367919922</v>
       </c>
       <c r="AI2">
-        <v>-5.303572177886963</v>
+        <v>-5.582672595977783</v>
       </c>
       <c r="AJ2">
-        <v>-1.795315265655518</v>
+        <v>-1.122793078422546</v>
       </c>
       <c r="AK2">
-        <v>0.03791442885994911</v>
+        <v>-0.7893528938293457</v>
       </c>
       <c r="AL2">
-        <v>-2.267203330993652</v>
+        <v>-2.064817905426025</v>
       </c>
       <c r="AM2">
-        <v>4.574203968048096</v>
+        <v>4.799717903137207</v>
       </c>
       <c r="AN2">
-        <v>14.24455165863037</v>
+        <v>14.28843212127686</v>
       </c>
       <c r="AO2">
-        <v>-4.444002151489258</v>
+        <v>-4.921441555023193</v>
       </c>
       <c r="AP2">
-        <v>-0.784572422504425</v>
+        <v>-1.183558583259583</v>
       </c>
       <c r="AQ2">
-        <v>-3.17216682434082</v>
+        <v>-2.375866174697876</v>
       </c>
       <c r="AR2">
-        <v>4.338255405426025</v>
+        <v>3.389827251434326</v>
       </c>
       <c r="AS2">
-        <v>-2.610775232315063</v>
+        <v>-2.369367599487305</v>
       </c>
       <c r="AT2">
-        <v>5.997921466827393</v>
+        <v>5.511303901672363</v>
       </c>
       <c r="AU2">
-        <v>-10.74818706512451</v>
+        <v>-10.94079303741455</v>
       </c>
       <c r="AV2">
-        <v>6.507283687591553</v>
+        <v>6.32315731048584</v>
       </c>
       <c r="AW2">
-        <v>-0.517242431640625</v>
+        <v>-1.023345947265625</v>
       </c>
       <c r="AX2">
-        <v>-0.05775810405611992</v>
+        <v>0.5654435753822327</v>
       </c>
       <c r="AY2">
-        <v>6.64848518371582</v>
+        <v>7.319427967071533</v>
       </c>
       <c r="AZ2">
-        <v>-10.15317630767822</v>
+        <v>-9.529209136962891</v>
       </c>
       <c r="BA2">
-        <v>-18.29981994628906</v>
+        <v>-18.64382171630859</v>
       </c>
       <c r="BB2">
-        <v>4.754391193389893</v>
+        <v>4.794452667236328</v>
       </c>
       <c r="BC2">
-        <v>1.531430721282959</v>
+        <v>2.289861440658569</v>
       </c>
       <c r="BD2">
-        <v>-0.5759485363960266</v>
+        <v>-0.8419564962387085</v>
       </c>
       <c r="BE2">
-        <v>1.557796239852905</v>
+        <v>0.5642567276954651</v>
       </c>
       <c r="BF2">
-        <v>7.035579204559326</v>
+        <v>7.187626361846924</v>
       </c>
       <c r="BG2">
-        <v>-1.006943345069885</v>
+        <v>-0.9984574913978577</v>
       </c>
       <c r="BH2">
-        <v>0.2699197828769684</v>
+        <v>1.192297577857971</v>
       </c>
       <c r="BI2">
-        <v>-1.071452856063843</v>
+        <v>-1.716512084007263</v>
       </c>
       <c r="BJ2">
-        <v>-2.314446926116943</v>
+        <v>-1.66315221786499</v>
       </c>
       <c r="BK2">
-        <v>0.7820258140563965</v>
+        <v>0.8362341523170471</v>
       </c>
       <c r="BL2">
-        <v>3.243653059005737</v>
+        <v>4.164932250976562</v>
       </c>
       <c r="BM2">
-        <v>5.401008605957031</v>
+        <v>5.729439258575439</v>
       </c>
       <c r="BN2">
-        <v>-14.12621784210205</v>
+        <v>-13.08476638793945</v>
       </c>
       <c r="BO2">
-        <v>-5.943454265594482</v>
+        <v>-5.999102115631104</v>
       </c>
       <c r="BP2">
-        <v>-7.217269897460938</v>
+        <v>-6.533312320709229</v>
       </c>
       <c r="BQ2">
-        <v>10.74917888641357</v>
+        <v>10.297287940979</v>
       </c>
       <c r="BR2">
-        <v>-2.306282043457031</v>
+        <v>-2.637315511703491</v>
       </c>
       <c r="BS2">
-        <v>-1.720572948455811</v>
+        <v>-0.9062245488166809</v>
       </c>
       <c r="BT2">
-        <v>0.2447539269924164</v>
+        <v>0.1641245782375336</v>
       </c>
       <c r="BU2">
-        <v>0.6416780948638916</v>
+        <v>1.160122990608215</v>
       </c>
       <c r="BV2">
-        <v>-3.605655670166016</v>
+        <v>-3.876181840896606</v>
       </c>
       <c r="BW2">
-        <v>-1.123345971107483</v>
+        <v>-0.8627155423164368</v>
       </c>
       <c r="BX2">
-        <v>-13.14815425872803</v>
+        <v>-12.55077838897705</v>
       </c>
       <c r="BY2">
-        <v>-2.287291526794434</v>
+        <v>-2.879478216171265</v>
       </c>
       <c r="BZ2">
-        <v>-4.515985488891602</v>
+        <v>-3.440567016601562</v>
       </c>
       <c r="CA2">
-        <v>-6.628956317901611</v>
+        <v>-6.726045608520508</v>
       </c>
       <c r="CB2">
-        <v>-3.030164003372192</v>
+        <v>-2.815956115722656</v>
       </c>
       <c r="CC2">
-        <v>-1.533902406692505</v>
+        <v>-1.539255142211914</v>
       </c>
       <c r="CD2">
-        <v>1.772123217582703</v>
+        <v>1.566142082214355</v>
       </c>
       <c r="CE2">
-        <v>9.015261650085449</v>
+        <v>8.69611930847168</v>
       </c>
       <c r="CF2">
-        <v>-12.51193237304688</v>
+        <v>-12.32947540283203</v>
       </c>
       <c r="CG2">
-        <v>-2.766964912414551</v>
+        <v>-2.286664724349976</v>
       </c>
       <c r="CH2">
-        <v>5.501554489135742</v>
+        <v>5.744451999664307</v>
       </c>
       <c r="CI2">
-        <v>-1.26964545249939</v>
+        <v>-1.613128900527954</v>
       </c>
       <c r="CJ2">
-        <v>-5.391940116882324</v>
+        <v>-4.408124923706055</v>
       </c>
       <c r="CK2">
-        <v>-2.404144525527954</v>
+        <v>-2.170755624771118</v>
       </c>
       <c r="CL2">
-        <v>2.974649906158447</v>
+        <v>2.743968486785889</v>
       </c>
       <c r="CM2">
-        <v>-7.385412693023682</v>
+        <v>-8.100824356079102</v>
       </c>
       <c r="CN2">
-        <v>0.1466758996248245</v>
+        <v>-0.1245189383625984</v>
       </c>
       <c r="CO2">
-        <v>-0.9506002068519592</v>
+        <v>-1.088049411773682</v>
       </c>
       <c r="CP2">
-        <v>2.807171583175659</v>
+        <v>2.297775268554688</v>
       </c>
       <c r="CQ2">
-        <v>2.508287434466183E-05</v>
+        <v>-0.7693468332290649</v>
       </c>
       <c r="CR2">
-        <v>-1.253363013267517</v>
+        <v>-0.1488052010536194</v>
       </c>
       <c r="CS2">
-        <v>1.761257171630859</v>
+        <v>0.9961106181144714</v>
       </c>
       <c r="CT2">
-        <v>-1.959236264228821</v>
+        <v>-1.886687159538269</v>
       </c>
       <c r="CU2">
-        <v>-2.199513673782349</v>
+        <v>-1.915112972259521</v>
       </c>
       <c r="CV2">
-        <v>1.915885210037231</v>
+        <v>2.262465715408325</v>
       </c>
       <c r="CW2">
-        <v>-7.849130630493164</v>
+        <v>-7.08871603012085</v>
       </c>
       <c r="CX2">
-        <v>1.017053484916687</v>
+        <v>1.602418899536133</v>
       </c>
       <c r="CY2">
-        <v>-1.263714790344238</v>
+        <v>-1.425439238548279</v>
       </c>
       <c r="CZ2">
-        <v>-0.9025990962982178</v>
+        <v>-0.6867047548294067</v>
       </c>
       <c r="DA2">
-        <v>-3.060524702072144</v>
+        <v>-2.982794523239136</v>
       </c>
       <c r="DB2">
-        <v>-13.47349166870117</v>
+        <v>-13.08278751373291</v>
       </c>
       <c r="DC2">
-        <v>3.65841007232666</v>
+        <v>3.000053644180298</v>
       </c>
       <c r="DD2">
-        <v>-18.98183250427246</v>
+        <v>-18.20715522766113</v>
       </c>
       <c r="DE2">
-        <v>2.849718332290649</v>
+        <v>2.292044878005981</v>
       </c>
       <c r="DF2">
-        <v>-2.166646480560303</v>
+        <v>-1.250848412513733</v>
       </c>
       <c r="DG2">
-        <v>-1.086906671524048</v>
+        <v>-0.4746288061141968</v>
       </c>
       <c r="DH2">
-        <v>-0.8801712989807129</v>
+        <v>-1.394976258277893</v>
       </c>
       <c r="DI2">
-        <v>0.7735837697982788</v>
+        <v>0.5780419707298279</v>
       </c>
       <c r="DJ2">
-        <v>5.048298358917236</v>
+        <v>5.953411102294922</v>
       </c>
       <c r="DK2">
-        <v>-1.142318964004517</v>
+        <v>-0.3116400837898254</v>
       </c>
       <c r="DL2">
-        <v>-3.339926719665527</v>
+        <v>-2.953502416610718</v>
       </c>
       <c r="DM2">
-        <v>4.838564395904541</v>
+        <v>4.767801761627197</v>
       </c>
       <c r="DN2">
-        <v>-1.472533106803894</v>
+        <v>-1.445967674255371</v>
       </c>
       <c r="DO2">
-        <v>-2.937897443771362</v>
+        <v>-3.124987363815308</v>
       </c>
       <c r="DP2">
-        <v>9.142996788024902</v>
+        <v>10.06208324432373</v>
       </c>
       <c r="DQ2">
-        <v>1.588423490524292</v>
+        <v>1.205196619033813</v>
       </c>
       <c r="DR2">
-        <v>1.4721440076828</v>
+        <v>0.9563366174697876</v>
       </c>
       <c r="DS2">
-        <v>0.6816349029541016</v>
+        <v>0.3388116359710693</v>
       </c>
       <c r="DT2">
-        <v>-1.065715432167053</v>
+        <v>-0.09725106507539749</v>
       </c>
       <c r="DU2">
-        <v>0.1527542322874069</v>
+        <v>0.87847501039505</v>
       </c>
       <c r="DV2">
-        <v>0.5635855793952942</v>
+        <v>0.7993921637535095</v>
       </c>
       <c r="DW2">
-        <v>-1.296027421951294</v>
+        <v>-1.079626202583313</v>
       </c>
       <c r="DX2">
-        <v>-1.659558773040771</v>
+        <v>-1.511254787445068</v>
       </c>
       <c r="DY2">
-        <v>4.922591209411621</v>
+        <v>5.990393161773682</v>
       </c>
       <c r="DZ2">
-        <v>0.8994207978248596</v>
+        <v>-0.3433858752250671</v>
       </c>
       <c r="EA2">
-        <v>6.543095588684082</v>
+        <v>7.544473648071289</v>
       </c>
       <c r="EB2">
-        <v>-0.8313239216804504</v>
+        <v>-1.017038702964783</v>
       </c>
       <c r="EC2">
-        <v>-1.083442091941833</v>
+        <v>-2.136141538619995</v>
       </c>
       <c r="ED2">
-        <v>-5.319017887115479</v>
+        <v>-5.978492259979248</v>
       </c>
       <c r="EE2">
-        <v>0.109506219625473</v>
+        <v>0.3797392845153809</v>
       </c>
       <c r="EF2">
-        <v>6.240195751190186</v>
+        <v>5.89824914932251</v>
       </c>
       <c r="EG2">
-        <v>0.2667094171047211</v>
+        <v>0.5628167986869812</v>
       </c>
       <c r="EH2">
-        <v>-8.742645263671875</v>
+        <v>-7.753884315490723</v>
       </c>
       <c r="EI2">
-        <v>-2.102946043014526</v>
+        <v>-1.165853977203369</v>
       </c>
       <c r="EJ2">
-        <v>1.478997468948364</v>
+        <v>0.7157477140426636</v>
       </c>
       <c r="EK2">
-        <v>1.538753509521484</v>
+        <v>1.427241444587708</v>
       </c>
       <c r="EL2">
-        <v>-0.410337895154953</v>
+        <v>-0.5377899408340454</v>
       </c>
       <c r="EM2">
-        <v>5.448184490203857</v>
+        <v>5.814492702484131</v>
       </c>
       <c r="EN2">
-        <v>-0.1664102673530579</v>
+        <v>-0.7044481635093689</v>
       </c>
       <c r="EO2">
-        <v>2.890270233154297</v>
+        <v>3.416279792785645</v>
       </c>
       <c r="EP2">
-        <v>2.79928994178772</v>
+        <v>2.273910760879517</v>
       </c>
       <c r="EQ2">
-        <v>5.439279079437256</v>
+        <v>5.562565803527832</v>
       </c>
       <c r="ER2">
-        <v>-1.134018778800964</v>
+        <v>-1.581548094749451</v>
       </c>
       <c r="ES2">
-        <v>-0.8801404237747192</v>
+        <v>-0.6849592328071594</v>
       </c>
       <c r="ET2">
-        <v>0.2327388674020767</v>
+        <v>-0.5091180801391602</v>
       </c>
       <c r="EU2">
-        <v>-3.407785892486572</v>
+        <v>-3.237560272216797</v>
       </c>
       <c r="EV2">
-        <v>1.120844841003418</v>
+        <v>0.3271602094173431</v>
       </c>
       <c r="EW2">
-        <v>-5.348414421081543</v>
+        <v>-4.271910190582275</v>
       </c>
       <c r="EX2">
-        <v>-4.818989276885986</v>
+        <v>-5.0141282081604</v>
       </c>
       <c r="EY2">
-        <v>0.4427134990692139</v>
+        <v>0.7764528393745422</v>
       </c>
       <c r="EZ2">
-        <v>-6.123311519622803</v>
+        <v>-5.030831813812256</v>
       </c>
       <c r="FA2">
-        <v>0.4889549612998962</v>
+        <v>-0.2819657325744629</v>
       </c>
       <c r="FB2">
-        <v>1.000033259391785</v>
+        <v>0.5078793168067932</v>
       </c>
       <c r="FC2">
-        <v>-1.302518010139465</v>
+        <v>-1.8482266664505</v>
       </c>
       <c r="FD2">
-        <v>-1.567839860916138</v>
+        <v>-1.465513229370117</v>
       </c>
       <c r="FE2">
-        <v>10.48838233947754</v>
+        <v>10.3455924987793</v>
       </c>
       <c r="FF2">
-        <v>-11.1458215713501</v>
+        <v>-11.37760543823242</v>
       </c>
       <c r="FG2">
-        <v>-3.655674457550049</v>
+        <v>-3.854763269424438</v>
       </c>
       <c r="FH2">
-        <v>2.330708742141724</v>
+        <v>1.267745852470398</v>
       </c>
       <c r="FI2">
-        <v>6.467887878417969</v>
+        <v>6.921427249908447</v>
       </c>
       <c r="FJ2">
-        <v>-0.6310486197471619</v>
+        <v>-0.9993689656257629</v>
       </c>
       <c r="FK2">
-        <v>-16.39001655578613</v>
+        <v>-17.06916618347168</v>
       </c>
       <c r="FL2">
-        <v>11.35270690917969</v>
+        <v>11.73357677459717</v>
       </c>
       <c r="FM2">
-        <v>5.38170051574707</v>
+        <v>6.236509799957275</v>
       </c>
       <c r="FN2">
-        <v>-7.914076328277588</v>
+        <v>-7.462591171264648</v>
       </c>
       <c r="FO2">
-        <v>-0.06409040093421936</v>
+        <v>0.3035010993480682</v>
       </c>
       <c r="FP2">
-        <v>0.8071499466896057</v>
+        <v>0.2259261906147003</v>
       </c>
       <c r="FQ2">
-        <v>0.6843048930168152</v>
+        <v>0.5410711169242859</v>
       </c>
       <c r="FR2">
-        <v>1.94468355178833</v>
+        <v>1.520494937896729</v>
       </c>
       <c r="FS2">
-        <v>1.374760985374451</v>
+        <v>1.342368125915527</v>
       </c>
       <c r="FT2">
-        <v>3.165632963180542</v>
+        <v>3.207267761230469</v>
       </c>
       <c r="FU2">
-        <v>-4.517595767974854</v>
+        <v>-5.155099391937256</v>
       </c>
       <c r="FV2">
-        <v>-1.530465245246887</v>
+        <v>-1.293396592140198</v>
       </c>
       <c r="FW2">
-        <v>2.041462182998657</v>
+        <v>1.881739974021912</v>
       </c>
       <c r="FX2">
-        <v>2.145537376403809</v>
+        <v>2.014777183532715</v>
       </c>
       <c r="FY2">
-        <v>-0.4757093191146851</v>
+        <v>-0.9284499883651733</v>
       </c>
       <c r="FZ2">
-        <v>1.081135153770447</v>
+        <v>1.006169557571411</v>
       </c>
       <c r="GA2">
-        <v>5.175164699554443</v>
+        <v>5.74018383026123</v>
       </c>
       <c r="GB2">
-        <v>-0.2658324837684631</v>
+        <v>-0.4681733846664429</v>
       </c>
       <c r="GC2">
-        <v>7.533943653106689</v>
+        <v>7.596876621246338</v>
       </c>
       <c r="GD2">
-        <v>-5.956149101257324</v>
+        <v>-6.374805927276611</v>
       </c>
       <c r="GE2">
-        <v>0.600904107093811</v>
+        <v>0.4388304948806763</v>
       </c>
       <c r="GF2">
-        <v>-0.9528984427452087</v>
+        <v>-0.05346811562776566</v>
       </c>
       <c r="GG2">
-        <v>-2.889695167541504</v>
+        <v>-2.577519416809082</v>
       </c>
       <c r="GH2">
-        <v>-1.58118200302124</v>
+        <v>-0.489109605550766</v>
       </c>
       <c r="GI2">
-        <v>-3.538032293319702</v>
+        <v>-3.136499881744385</v>
       </c>
       <c r="GJ2">
-        <v>-2.589232206344604</v>
+        <v>-1.860635995864868</v>
       </c>
       <c r="GK2">
-        <v>-2.321836948394775</v>
+        <v>-2.109062910079956</v>
       </c>
       <c r="GL2">
-        <v>3.363181352615356</v>
+        <v>3.334752798080444</v>
       </c>
       <c r="GM2">
-        <v>-5.025119304656982</v>
+        <v>-5.704028129577637</v>
       </c>
       <c r="GN2">
-        <v>1.109463572502136</v>
+        <v>0.807334303855896</v>
       </c>
       <c r="GO2">
-        <v>12.15724945068359</v>
+        <v>12.64262104034424</v>
       </c>
       <c r="GP2">
-        <v>-1.041086196899414</v>
+        <v>-1.132633447647095</v>
       </c>
       <c r="GQ2">
-        <v>0.3010801076889038</v>
+        <v>1.016247510910034</v>
       </c>
       <c r="GR2">
-        <v>0.1198296919465065</v>
+        <v>0.1294034868478775</v>
       </c>
       <c r="GS2">
-        <v>-3.73049521446228</v>
+        <v>-3.627227067947388</v>
       </c>
       <c r="GT2">
-        <v>-0.3695876598358154</v>
+        <v>-0.3353998959064484</v>
       </c>
       <c r="GU2">
-        <v>2.005083560943604</v>
+        <v>1.627392530441284</v>
       </c>
       <c r="GV2">
-        <v>0.1727705746889114</v>
+        <v>-0.3795214593410492</v>
       </c>
       <c r="GW2">
-        <v>-7.413331031799316</v>
+        <v>-6.729218006134033</v>
       </c>
       <c r="GX2">
-        <v>-0.2713660299777985</v>
+        <v>-0.03082402423024178</v>
       </c>
       <c r="GY2">
-        <v>-1.352112174034119</v>
+        <v>-1.668086767196655</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.962526798248291</v>
+        <v>3.020435094833374</v>
       </c>
       <c r="C2">
-        <v>-12.4136962890625</v>
+        <v>-13.00010871887207</v>
       </c>
       <c r="D2">
-        <v>7.529349327087402</v>
+        <v>5.996752738952637</v>
       </c>
       <c r="E2">
-        <v>1.34993052482605</v>
+        <v>1.976797103881836</v>
       </c>
       <c r="F2">
-        <v>0.429832249879837</v>
+        <v>1.788412570953369</v>
       </c>
       <c r="G2">
-        <v>2.632139921188354</v>
+        <v>0.5593967437744141</v>
       </c>
       <c r="H2">
-        <v>2.737445831298828</v>
+        <v>1.248708486557007</v>
       </c>
       <c r="I2">
-        <v>2.205706119537354</v>
+        <v>2.127900838851929</v>
       </c>
       <c r="J2">
-        <v>-5.071004867553711</v>
+        <v>-5.582736492156982</v>
       </c>
       <c r="K2">
-        <v>-0.1869069337844849</v>
+        <v>0.6455546021461487</v>
       </c>
       <c r="L2">
-        <v>4.027901649475098</v>
+        <v>3.274849653244019</v>
       </c>
       <c r="M2">
-        <v>1.652290940284729</v>
+        <v>1.255863666534424</v>
       </c>
       <c r="N2">
-        <v>-2.144444942474365</v>
+        <v>-2.155180215835571</v>
       </c>
       <c r="O2">
-        <v>-1.632479190826416</v>
+        <v>-0.04582063108682632</v>
       </c>
       <c r="P2">
-        <v>4.061133861541748</v>
+        <v>4.569875240325928</v>
       </c>
       <c r="Q2">
-        <v>2.465577840805054</v>
+        <v>1.643115997314453</v>
       </c>
       <c r="R2">
-        <v>-0.5582136511802673</v>
+        <v>-0.6922160983085632</v>
       </c>
       <c r="S2">
-        <v>4.225120067596436</v>
+        <v>3.52625560760498</v>
       </c>
       <c r="T2">
-        <v>-3.217479705810547</v>
+        <v>-2.56152606010437</v>
       </c>
       <c r="U2">
-        <v>-8.684784889221191</v>
+        <v>-9.820331573486328</v>
       </c>
       <c r="V2">
-        <v>-2.220895528793335</v>
+        <v>-2.012303590774536</v>
       </c>
       <c r="W2">
-        <v>-6.9591383934021</v>
+        <v>-6.797203540802002</v>
       </c>
       <c r="X2">
-        <v>-2.091822147369385</v>
+        <v>-0.4457899630069733</v>
       </c>
       <c r="Y2">
-        <v>-5.273787498474121</v>
+        <v>-6.089142799377441</v>
       </c>
       <c r="Z2">
-        <v>-8.111651420593262</v>
+        <v>-8.455131530761719</v>
       </c>
       <c r="AA2">
-        <v>0.04316546022891998</v>
+        <v>-0.5174286365509033</v>
       </c>
       <c r="AB2">
-        <v>7.633736610412598</v>
+        <v>7.881500720977783</v>
       </c>
       <c r="AC2">
-        <v>-3.780715703964233</v>
+        <v>-3.181396245956421</v>
       </c>
       <c r="AD2">
-        <v>-1.338339328765869</v>
+        <v>-1.347641468048096</v>
       </c>
       <c r="AE2">
-        <v>-8.775899887084961</v>
+        <v>-10.12163734436035</v>
       </c>
       <c r="AF2">
-        <v>1.064929246902466</v>
+        <v>1.29140567779541</v>
       </c>
       <c r="AG2">
-        <v>-0.966217577457428</v>
+        <v>-0.783044695854187</v>
       </c>
       <c r="AH2">
-        <v>-21.80608367919922</v>
+        <v>-21.65314674377441</v>
       </c>
       <c r="AI2">
-        <v>-5.582672595977783</v>
+        <v>-4.731821060180664</v>
       </c>
       <c r="AJ2">
-        <v>-1.122793078422546</v>
+        <v>-1.820211291313171</v>
       </c>
       <c r="AK2">
-        <v>-0.7893528938293457</v>
+        <v>0.5771467685699463</v>
       </c>
       <c r="AL2">
-        <v>-2.064817905426025</v>
+        <v>-3.313189029693604</v>
       </c>
       <c r="AM2">
-        <v>4.799717903137207</v>
+        <v>4.723342895507812</v>
       </c>
       <c r="AN2">
-        <v>14.28843212127686</v>
+        <v>14.51698970794678</v>
       </c>
       <c r="AO2">
-        <v>-4.921441555023193</v>
+        <v>-3.968473434448242</v>
       </c>
       <c r="AP2">
-        <v>-1.183558583259583</v>
+        <v>-0.6651330590248108</v>
       </c>
       <c r="AQ2">
-        <v>-2.375866174697876</v>
+        <v>-3.248479127883911</v>
       </c>
       <c r="AR2">
-        <v>3.389827251434326</v>
+        <v>4.319106101989746</v>
       </c>
       <c r="AS2">
-        <v>-2.369367599487305</v>
+        <v>-2.375521421432495</v>
       </c>
       <c r="AT2">
-        <v>5.511303901672363</v>
+        <v>5.324793338775635</v>
       </c>
       <c r="AU2">
-        <v>-10.94079303741455</v>
+        <v>-11.12291145324707</v>
       </c>
       <c r="AV2">
-        <v>6.32315731048584</v>
+        <v>6.811576843261719</v>
       </c>
       <c r="AW2">
-        <v>-1.023345947265625</v>
+        <v>-0.7980390191078186</v>
       </c>
       <c r="AX2">
-        <v>0.5654435753822327</v>
+        <v>-0.1789700090885162</v>
       </c>
       <c r="AY2">
-        <v>7.319427967071533</v>
+        <v>6.524379253387451</v>
       </c>
       <c r="AZ2">
-        <v>-9.529209136962891</v>
+        <v>-10.08702564239502</v>
       </c>
       <c r="BA2">
-        <v>-18.64382171630859</v>
+        <v>-17.66119766235352</v>
       </c>
       <c r="BB2">
-        <v>4.794452667236328</v>
+        <v>4.055003643035889</v>
       </c>
       <c r="BC2">
-        <v>2.289861440658569</v>
+        <v>1.843361735343933</v>
       </c>
       <c r="BD2">
-        <v>-0.8419564962387085</v>
+        <v>-0.9233503937721252</v>
       </c>
       <c r="BE2">
-        <v>0.5642567276954651</v>
+        <v>1.788330078125</v>
       </c>
       <c r="BF2">
-        <v>7.187626361846924</v>
+        <v>6.64143180847168</v>
       </c>
       <c r="BG2">
-        <v>-0.9984574913978577</v>
+        <v>-1.412269830703735</v>
       </c>
       <c r="BH2">
-        <v>1.192297577857971</v>
+        <v>-0.3256762623786926</v>
       </c>
       <c r="BI2">
-        <v>-1.716512084007263</v>
+        <v>-1.093158960342407</v>
       </c>
       <c r="BJ2">
-        <v>-1.66315221786499</v>
+        <v>-2.631695032119751</v>
       </c>
       <c r="BK2">
-        <v>0.8362341523170471</v>
+        <v>1.479119896888733</v>
       </c>
       <c r="BL2">
-        <v>4.164932250976562</v>
+        <v>3.071417808532715</v>
       </c>
       <c r="BM2">
-        <v>5.729439258575439</v>
+        <v>5.389459133148193</v>
       </c>
       <c r="BN2">
-        <v>-13.08476638793945</v>
+        <v>-14.21584606170654</v>
       </c>
       <c r="BO2">
-        <v>-5.999102115631104</v>
+        <v>-6.186000823974609</v>
       </c>
       <c r="BP2">
-        <v>-6.533312320709229</v>
+        <v>-6.388509750366211</v>
       </c>
       <c r="BQ2">
-        <v>10.297287940979</v>
+        <v>10.71779441833496</v>
       </c>
       <c r="BR2">
-        <v>-2.637315511703491</v>
+        <v>-1.996831059455872</v>
       </c>
       <c r="BS2">
-        <v>-0.9062245488166809</v>
+        <v>-2.570070266723633</v>
       </c>
       <c r="BT2">
-        <v>0.1641245782375336</v>
+        <v>-0.151868462562561</v>
       </c>
       <c r="BU2">
-        <v>1.160122990608215</v>
+        <v>0.1053192466497421</v>
       </c>
       <c r="BV2">
-        <v>-3.876181840896606</v>
+        <v>-4.44580078125</v>
       </c>
       <c r="BW2">
-        <v>-0.8627155423164368</v>
+        <v>-0.219533309340477</v>
       </c>
       <c r="BX2">
-        <v>-12.55077838897705</v>
+        <v>-12.16466808319092</v>
       </c>
       <c r="BY2">
-        <v>-2.879478216171265</v>
+        <v>-2.370736122131348</v>
       </c>
       <c r="BZ2">
-        <v>-3.440567016601562</v>
+        <v>-4.124704837799072</v>
       </c>
       <c r="CA2">
-        <v>-6.726045608520508</v>
+        <v>-7.434714794158936</v>
       </c>
       <c r="CB2">
-        <v>-2.815956115722656</v>
+        <v>-2.783305644989014</v>
       </c>
       <c r="CC2">
-        <v>-1.539255142211914</v>
+        <v>-1.553033351898193</v>
       </c>
       <c r="CD2">
-        <v>1.566142082214355</v>
+        <v>1.29507052898407</v>
       </c>
       <c r="CE2">
-        <v>8.69611930847168</v>
+        <v>9.527046203613281</v>
       </c>
       <c r="CF2">
-        <v>-12.32947540283203</v>
+        <v>-11.14334297180176</v>
       </c>
       <c r="CG2">
-        <v>-2.286664724349976</v>
+        <v>-2.119203329086304</v>
       </c>
       <c r="CH2">
-        <v>5.744451999664307</v>
+        <v>5.273783206939697</v>
       </c>
       <c r="CI2">
-        <v>-1.613128900527954</v>
+        <v>-1.789336919784546</v>
       </c>
       <c r="CJ2">
-        <v>-4.408124923706055</v>
+        <v>-5.911770343780518</v>
       </c>
       <c r="CK2">
-        <v>-2.170755624771118</v>
+        <v>-2.826462268829346</v>
       </c>
       <c r="CL2">
-        <v>2.743968486785889</v>
+        <v>2.993862152099609</v>
       </c>
       <c r="CM2">
-        <v>-8.100824356079102</v>
+        <v>-7.024102210998535</v>
       </c>
       <c r="CN2">
-        <v>-0.1245189383625984</v>
+        <v>-0.8053459525108337</v>
       </c>
       <c r="CO2">
-        <v>-1.088049411773682</v>
+        <v>-1.263370394706726</v>
       </c>
       <c r="CP2">
-        <v>2.297775268554688</v>
+        <v>2.288393497467041</v>
       </c>
       <c r="CQ2">
-        <v>-0.7693468332290649</v>
+        <v>0.6452566385269165</v>
       </c>
       <c r="CR2">
-        <v>-0.1488052010536194</v>
+        <v>-1.051630854606628</v>
       </c>
       <c r="CS2">
-        <v>0.9961106181144714</v>
+        <v>1.538272976875305</v>
       </c>
       <c r="CT2">
-        <v>-1.886687159538269</v>
+        <v>-1.93160080909729</v>
       </c>
       <c r="CU2">
-        <v>-1.915112972259521</v>
+        <v>-1.853252410888672</v>
       </c>
       <c r="CV2">
-        <v>2.262465715408325</v>
+        <v>2.27725076675415</v>
       </c>
       <c r="CW2">
-        <v>-7.08871603012085</v>
+        <v>-7.029216766357422</v>
       </c>
       <c r="CX2">
-        <v>1.602418899536133</v>
+        <v>2.045357465744019</v>
       </c>
       <c r="CY2">
-        <v>-1.425439238548279</v>
+        <v>-2.005544900894165</v>
       </c>
       <c r="CZ2">
-        <v>-0.6867047548294067</v>
+        <v>-0.5802419185638428</v>
       </c>
       <c r="DA2">
-        <v>-2.982794523239136</v>
+        <v>-2.380598545074463</v>
       </c>
       <c r="DB2">
-        <v>-13.08278751373291</v>
+        <v>-14.01966762542725</v>
       </c>
       <c r="DC2">
-        <v>3.000053644180298</v>
+        <v>2.832382678985596</v>
       </c>
       <c r="DD2">
-        <v>-18.20715522766113</v>
+        <v>-18.33758926391602</v>
       </c>
       <c r="DE2">
-        <v>2.292044878005981</v>
+        <v>2.242286443710327</v>
       </c>
       <c r="DF2">
-        <v>-1.250848412513733</v>
+        <v>-2.03406548500061</v>
       </c>
       <c r="DG2">
-        <v>-0.4746288061141968</v>
+        <v>-0.194011390209198</v>
       </c>
       <c r="DH2">
-        <v>-1.394976258277893</v>
+        <v>-1.312951326370239</v>
       </c>
       <c r="DI2">
-        <v>0.5780419707298279</v>
+        <v>0.9675391316413879</v>
       </c>
       <c r="DJ2">
-        <v>5.953411102294922</v>
+        <v>5.293147563934326</v>
       </c>
       <c r="DK2">
-        <v>-0.3116400837898254</v>
+        <v>-1.884172916412354</v>
       </c>
       <c r="DL2">
-        <v>-2.953502416610718</v>
+        <v>-2.929900884628296</v>
       </c>
       <c r="DM2">
-        <v>4.767801761627197</v>
+        <v>4.814265251159668</v>
       </c>
       <c r="DN2">
-        <v>-1.445967674255371</v>
+        <v>-1.870394468307495</v>
       </c>
       <c r="DO2">
-        <v>-3.124987363815308</v>
+        <v>-2.411219120025635</v>
       </c>
       <c r="DP2">
-        <v>10.06208324432373</v>
+        <v>9.137849807739258</v>
       </c>
       <c r="DQ2">
-        <v>1.205196619033813</v>
+        <v>1.320086240768433</v>
       </c>
       <c r="DR2">
-        <v>0.9563366174697876</v>
+        <v>2.267148017883301</v>
       </c>
       <c r="DS2">
-        <v>0.3388116359710693</v>
+        <v>-0.3430532217025757</v>
       </c>
       <c r="DT2">
-        <v>-0.09725106507539749</v>
+        <v>-0.8992268443107605</v>
       </c>
       <c r="DU2">
-        <v>0.87847501039505</v>
+        <v>0.9635829329490662</v>
       </c>
       <c r="DV2">
-        <v>0.7993921637535095</v>
+        <v>0.03265131264925003</v>
       </c>
       <c r="DW2">
-        <v>-1.079626202583313</v>
+        <v>-1.801812410354614</v>
       </c>
       <c r="DX2">
-        <v>-1.511254787445068</v>
+        <v>-1.856387138366699</v>
       </c>
       <c r="DY2">
-        <v>5.990393161773682</v>
+        <v>4.697607040405273</v>
       </c>
       <c r="DZ2">
-        <v>-0.3433858752250671</v>
+        <v>0.3462874591350555</v>
       </c>
       <c r="EA2">
-        <v>7.544473648071289</v>
+        <v>5.592828750610352</v>
       </c>
       <c r="EB2">
-        <v>-1.017038702964783</v>
+        <v>-1.240352272987366</v>
       </c>
       <c r="EC2">
-        <v>-2.136141538619995</v>
+        <v>-1.666254639625549</v>
       </c>
       <c r="ED2">
-        <v>-5.978492259979248</v>
+        <v>-5.15357780456543</v>
       </c>
       <c r="EE2">
-        <v>0.3797392845153809</v>
+        <v>-0.4732176661491394</v>
       </c>
       <c r="EF2">
-        <v>5.89824914932251</v>
+        <v>6.508815288543701</v>
       </c>
       <c r="EG2">
-        <v>0.5628167986869812</v>
+        <v>0.3793128132820129</v>
       </c>
       <c r="EH2">
-        <v>-7.753884315490723</v>
+        <v>-8.039748191833496</v>
       </c>
       <c r="EI2">
-        <v>-1.165853977203369</v>
+        <v>-1.884646773338318</v>
       </c>
       <c r="EJ2">
-        <v>0.7157477140426636</v>
+        <v>1.672131657600403</v>
       </c>
       <c r="EK2">
-        <v>1.427241444587708</v>
+        <v>1.323474764823914</v>
       </c>
       <c r="EL2">
-        <v>-0.5377899408340454</v>
+        <v>-0.7802929878234863</v>
       </c>
       <c r="EM2">
-        <v>5.814492702484131</v>
+        <v>6.353648662567139</v>
       </c>
       <c r="EN2">
-        <v>-0.7044481635093689</v>
+        <v>0.3227175772190094</v>
       </c>
       <c r="EO2">
-        <v>3.416279792785645</v>
+        <v>3.624449491500854</v>
       </c>
       <c r="EP2">
-        <v>2.273910760879517</v>
+        <v>2.580325603485107</v>
       </c>
       <c r="EQ2">
-        <v>5.562565803527832</v>
+        <v>5.243076324462891</v>
       </c>
       <c r="ER2">
-        <v>-1.581548094749451</v>
+        <v>-0.5013632774353027</v>
       </c>
       <c r="ES2">
-        <v>-0.6849592328071594</v>
+        <v>0.03133819624781609</v>
       </c>
       <c r="ET2">
-        <v>-0.5091180801391602</v>
+        <v>-0.1713389009237289</v>
       </c>
       <c r="EU2">
-        <v>-3.237560272216797</v>
+        <v>-3.47690749168396</v>
       </c>
       <c r="EV2">
-        <v>0.3271602094173431</v>
+        <v>1.186721682548523</v>
       </c>
       <c r="EW2">
-        <v>-4.271910190582275</v>
+        <v>-5.660402297973633</v>
       </c>
       <c r="EX2">
-        <v>-5.0141282081604</v>
+        <v>-4.441727161407471</v>
       </c>
       <c r="EY2">
-        <v>0.7764528393745422</v>
+        <v>-0.1567222326993942</v>
       </c>
       <c r="EZ2">
-        <v>-5.030831813812256</v>
+        <v>-6.679345607757568</v>
       </c>
       <c r="FA2">
-        <v>-0.2819657325744629</v>
+        <v>1.385758996009827</v>
       </c>
       <c r="FB2">
-        <v>0.5078793168067932</v>
+        <v>0.4142672717571259</v>
       </c>
       <c r="FC2">
-        <v>-1.8482266664505</v>
+        <v>-1.641953706741333</v>
       </c>
       <c r="FD2">
-        <v>-1.465513229370117</v>
+        <v>-1.698440670967102</v>
       </c>
       <c r="FE2">
-        <v>10.3455924987793</v>
+        <v>9.549074172973633</v>
       </c>
       <c r="FF2">
-        <v>-11.37760543823242</v>
+        <v>-10.65230464935303</v>
       </c>
       <c r="FG2">
-        <v>-3.854763269424438</v>
+        <v>-4.084134101867676</v>
       </c>
       <c r="FH2">
-        <v>1.267745852470398</v>
+        <v>1.461867809295654</v>
       </c>
       <c r="FI2">
-        <v>6.921427249908447</v>
+        <v>5.745046615600586</v>
       </c>
       <c r="FJ2">
-        <v>-0.9993689656257629</v>
+        <v>-0.4079557657241821</v>
       </c>
       <c r="FK2">
-        <v>-17.06916618347168</v>
+        <v>-16.77264595031738</v>
       </c>
       <c r="FL2">
-        <v>11.73357677459717</v>
+        <v>12.26474475860596</v>
       </c>
       <c r="FM2">
-        <v>6.236509799957275</v>
+        <v>5.875095844268799</v>
       </c>
       <c r="FN2">
-        <v>-7.462591171264648</v>
+        <v>-7.201716899871826</v>
       </c>
       <c r="FO2">
-        <v>0.3035010993480682</v>
+        <v>0.6265277862548828</v>
       </c>
       <c r="FP2">
-        <v>0.2259261906147003</v>
+        <v>0.584277331829071</v>
       </c>
       <c r="FQ2">
-        <v>0.5410711169242859</v>
+        <v>0.4316006302833557</v>
       </c>
       <c r="FR2">
-        <v>1.520494937896729</v>
+        <v>1.450878024101257</v>
       </c>
       <c r="FS2">
-        <v>1.342368125915527</v>
+        <v>1.476084232330322</v>
       </c>
       <c r="FT2">
-        <v>3.207267761230469</v>
+        <v>2.902076959609985</v>
       </c>
       <c r="FU2">
-        <v>-5.155099391937256</v>
+        <v>-4.2245774269104</v>
       </c>
       <c r="FV2">
-        <v>-1.293396592140198</v>
+        <v>-1.924265265464783</v>
       </c>
       <c r="FW2">
-        <v>1.881739974021912</v>
+        <v>1.606116056442261</v>
       </c>
       <c r="FX2">
-        <v>2.014777183532715</v>
+        <v>0.8623175621032715</v>
       </c>
       <c r="FY2">
-        <v>-0.9284499883651733</v>
+        <v>0.1868710964918137</v>
       </c>
       <c r="FZ2">
-        <v>1.006169557571411</v>
+        <v>1.594655871391296</v>
       </c>
       <c r="GA2">
-        <v>5.74018383026123</v>
+        <v>5.678077220916748</v>
       </c>
       <c r="GB2">
-        <v>-0.4681733846664429</v>
+        <v>0.1203257516026497</v>
       </c>
       <c r="GC2">
-        <v>7.596876621246338</v>
+        <v>7.675788879394531</v>
       </c>
       <c r="GD2">
-        <v>-6.374805927276611</v>
+        <v>-5.354115009307861</v>
       </c>
       <c r="GE2">
-        <v>0.4388304948806763</v>
+        <v>0.2361584156751633</v>
       </c>
       <c r="GF2">
-        <v>-0.05346811562776566</v>
+        <v>-0.05373365059494972</v>
       </c>
       <c r="GG2">
-        <v>-2.577519416809082</v>
+        <v>-2.612179040908813</v>
       </c>
       <c r="GH2">
-        <v>-0.489109605550766</v>
+        <v>-0.6206811666488647</v>
       </c>
       <c r="GI2">
-        <v>-3.136499881744385</v>
+        <v>-3.437540292739868</v>
       </c>
       <c r="GJ2">
-        <v>-1.860635995864868</v>
+        <v>-2.451443195343018</v>
       </c>
       <c r="GK2">
-        <v>-2.109062910079956</v>
+        <v>-1.549316644668579</v>
       </c>
       <c r="GL2">
-        <v>3.334752798080444</v>
+        <v>2.717775583267212</v>
       </c>
       <c r="GM2">
-        <v>-5.704028129577637</v>
+        <v>-5.327935218811035</v>
       </c>
       <c r="GN2">
-        <v>0.807334303855896</v>
+        <v>0.8702541589736938</v>
       </c>
       <c r="GO2">
-        <v>12.64262104034424</v>
+        <v>11.70174407958984</v>
       </c>
       <c r="GP2">
-        <v>-1.132633447647095</v>
+        <v>-1.140826821327209</v>
       </c>
       <c r="GQ2">
-        <v>1.016247510910034</v>
+        <v>0.5723569989204407</v>
       </c>
       <c r="GR2">
-        <v>0.1294034868478775</v>
+        <v>-0.4307525455951691</v>
       </c>
       <c r="GS2">
-        <v>-3.627227067947388</v>
+        <v>-3.786903619766235</v>
       </c>
       <c r="GT2">
-        <v>-0.3353998959064484</v>
+        <v>-0.489807665348053</v>
       </c>
       <c r="GU2">
-        <v>1.627392530441284</v>
+        <v>2.204462766647339</v>
       </c>
       <c r="GV2">
-        <v>-0.3795214593410492</v>
+        <v>1.028403282165527</v>
       </c>
       <c r="GW2">
-        <v>-6.729218006134033</v>
+        <v>-6.723423480987549</v>
       </c>
       <c r="GX2">
-        <v>-0.03082402423024178</v>
+        <v>-0.8669676184654236</v>
       </c>
       <c r="GY2">
-        <v>-1.668086767196655</v>
+        <v>-1.714324116706848</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.020435094833374</v>
+        <v>3.130480289459229</v>
       </c>
       <c r="C2">
-        <v>-13.00010871887207</v>
+        <v>-12.93792629241943</v>
       </c>
       <c r="D2">
-        <v>5.996752738952637</v>
+        <v>5.736561298370361</v>
       </c>
       <c r="E2">
-        <v>1.976797103881836</v>
+        <v>1.5931636095047</v>
       </c>
       <c r="F2">
-        <v>1.788412570953369</v>
+        <v>2.184783935546875</v>
       </c>
       <c r="G2">
-        <v>0.5593967437744141</v>
+        <v>0.7425821423530579</v>
       </c>
       <c r="H2">
-        <v>1.248708486557007</v>
+        <v>1.293557286262512</v>
       </c>
       <c r="I2">
-        <v>2.127900838851929</v>
+        <v>2.526492834091187</v>
       </c>
       <c r="J2">
-        <v>-5.582736492156982</v>
+        <v>-4.902971744537354</v>
       </c>
       <c r="K2">
-        <v>0.6455546021461487</v>
+        <v>-0.20814149081707</v>
       </c>
       <c r="L2">
-        <v>3.274849653244019</v>
+        <v>2.901273727416992</v>
       </c>
       <c r="M2">
-        <v>1.255863666534424</v>
+        <v>0.6355124115943909</v>
       </c>
       <c r="N2">
-        <v>-2.155180215835571</v>
+        <v>-2.007874488830566</v>
       </c>
       <c r="O2">
-        <v>-0.04582063108682632</v>
+        <v>0.4637817442417145</v>
       </c>
       <c r="P2">
-        <v>4.569875240325928</v>
+        <v>3.917029857635498</v>
       </c>
       <c r="Q2">
-        <v>1.643115997314453</v>
+        <v>1.115863442420959</v>
       </c>
       <c r="R2">
-        <v>-0.6922160983085632</v>
+        <v>-0.3439851105213165</v>
       </c>
       <c r="S2">
-        <v>3.52625560760498</v>
+        <v>4.30377197265625</v>
       </c>
       <c r="T2">
-        <v>-2.56152606010437</v>
+        <v>-2.604284763336182</v>
       </c>
       <c r="U2">
-        <v>-9.820331573486328</v>
+        <v>-8.859657287597656</v>
       </c>
       <c r="V2">
-        <v>-2.012303590774536</v>
+        <v>-0.9386340379714966</v>
       </c>
       <c r="W2">
-        <v>-6.797203540802002</v>
+        <v>-7.067704200744629</v>
       </c>
       <c r="X2">
-        <v>-0.4457899630069733</v>
+        <v>-0.5897232294082642</v>
       </c>
       <c r="Y2">
-        <v>-6.089142799377441</v>
+        <v>-6.115894794464111</v>
       </c>
       <c r="Z2">
-        <v>-8.455131530761719</v>
+        <v>-8.516912460327148</v>
       </c>
       <c r="AA2">
-        <v>-0.5174286365509033</v>
+        <v>0.2216222435235977</v>
       </c>
       <c r="AB2">
-        <v>7.881500720977783</v>
+        <v>6.971585750579834</v>
       </c>
       <c r="AC2">
-        <v>-3.181396245956421</v>
+        <v>-3.115450620651245</v>
       </c>
       <c r="AD2">
-        <v>-1.347641468048096</v>
+        <v>-1.351284027099609</v>
       </c>
       <c r="AE2">
-        <v>-10.12163734436035</v>
+        <v>-10.824631690979</v>
       </c>
       <c r="AF2">
-        <v>1.29140567779541</v>
+        <v>1.030156970024109</v>
       </c>
       <c r="AG2">
-        <v>-0.783044695854187</v>
+        <v>-0.5446039438247681</v>
       </c>
       <c r="AH2">
-        <v>-21.65314674377441</v>
+        <v>-21.51325607299805</v>
       </c>
       <c r="AI2">
-        <v>-4.731821060180664</v>
+        <v>-5.797033309936523</v>
       </c>
       <c r="AJ2">
-        <v>-1.820211291313171</v>
+        <v>-2.738815784454346</v>
       </c>
       <c r="AK2">
-        <v>0.5771467685699463</v>
+        <v>0.6945456266403198</v>
       </c>
       <c r="AL2">
-        <v>-3.313189029693604</v>
+        <v>-2.505768060684204</v>
       </c>
       <c r="AM2">
-        <v>4.723342895507812</v>
+        <v>4.311859130859375</v>
       </c>
       <c r="AN2">
-        <v>14.51698970794678</v>
+        <v>14.32254695892334</v>
       </c>
       <c r="AO2">
-        <v>-3.968473434448242</v>
+        <v>-4.365035057067871</v>
       </c>
       <c r="AP2">
-        <v>-0.6651330590248108</v>
+        <v>-0.2027339190244675</v>
       </c>
       <c r="AQ2">
-        <v>-3.248479127883911</v>
+        <v>-4.044056415557861</v>
       </c>
       <c r="AR2">
-        <v>4.319106101989746</v>
+        <v>4.245655059814453</v>
       </c>
       <c r="AS2">
-        <v>-2.375521421432495</v>
+        <v>-1.631335735321045</v>
       </c>
       <c r="AT2">
-        <v>5.324793338775635</v>
+        <v>5.514768123626709</v>
       </c>
       <c r="AU2">
-        <v>-11.12291145324707</v>
+        <v>-12.15020656585693</v>
       </c>
       <c r="AV2">
-        <v>6.811576843261719</v>
+        <v>7.037415981292725</v>
       </c>
       <c r="AW2">
-        <v>-0.7980390191078186</v>
+        <v>-0.931405246257782</v>
       </c>
       <c r="AX2">
-        <v>-0.1789700090885162</v>
+        <v>-0.07732135057449341</v>
       </c>
       <c r="AY2">
-        <v>6.524379253387451</v>
+        <v>7.080896854400635</v>
       </c>
       <c r="AZ2">
-        <v>-10.08702564239502</v>
+        <v>-11.02423858642578</v>
       </c>
       <c r="BA2">
-        <v>-17.66119766235352</v>
+        <v>-18.42637634277344</v>
       </c>
       <c r="BB2">
-        <v>4.055003643035889</v>
+        <v>4.066152572631836</v>
       </c>
       <c r="BC2">
-        <v>1.843361735343933</v>
+        <v>1.777973413467407</v>
       </c>
       <c r="BD2">
-        <v>-0.9233503937721252</v>
+        <v>-1.003526210784912</v>
       </c>
       <c r="BE2">
-        <v>1.788330078125</v>
+        <v>0.7755630612373352</v>
       </c>
       <c r="BF2">
-        <v>6.64143180847168</v>
+        <v>6.684316158294678</v>
       </c>
       <c r="BG2">
-        <v>-1.412269830703735</v>
+        <v>-1.533892154693604</v>
       </c>
       <c r="BH2">
-        <v>-0.3256762623786926</v>
+        <v>-0.6131669878959656</v>
       </c>
       <c r="BI2">
-        <v>-1.093158960342407</v>
+        <v>-1.182835578918457</v>
       </c>
       <c r="BJ2">
-        <v>-2.631695032119751</v>
+        <v>-2.590897560119629</v>
       </c>
       <c r="BK2">
-        <v>1.479119896888733</v>
+        <v>1.363489985466003</v>
       </c>
       <c r="BL2">
-        <v>3.071417808532715</v>
+        <v>3.198380470275879</v>
       </c>
       <c r="BM2">
-        <v>5.389459133148193</v>
+        <v>5.69059944152832</v>
       </c>
       <c r="BN2">
-        <v>-14.21584606170654</v>
+        <v>-15.00390434265137</v>
       </c>
       <c r="BO2">
-        <v>-6.186000823974609</v>
+        <v>-5.887280464172363</v>
       </c>
       <c r="BP2">
-        <v>-6.388509750366211</v>
+        <v>-7.049173355102539</v>
       </c>
       <c r="BQ2">
-        <v>10.71779441833496</v>
+        <v>11.66050624847412</v>
       </c>
       <c r="BR2">
-        <v>-1.996831059455872</v>
+        <v>-1.32628059387207</v>
       </c>
       <c r="BS2">
-        <v>-2.570070266723633</v>
+        <v>-2.163434743881226</v>
       </c>
       <c r="BT2">
-        <v>-0.151868462562561</v>
+        <v>0.3220535814762115</v>
       </c>
       <c r="BU2">
-        <v>0.1053192466497421</v>
+        <v>-0.3947457671165466</v>
       </c>
       <c r="BV2">
-        <v>-4.44580078125</v>
+        <v>-4.630327224731445</v>
       </c>
       <c r="BW2">
-        <v>-0.219533309340477</v>
+        <v>-0.002701821736991405</v>
       </c>
       <c r="BX2">
-        <v>-12.16466808319092</v>
+        <v>-11.42226123809814</v>
       </c>
       <c r="BY2">
-        <v>-2.370736122131348</v>
+        <v>-1.840684652328491</v>
       </c>
       <c r="BZ2">
-        <v>-4.124704837799072</v>
+        <v>-3.719340085983276</v>
       </c>
       <c r="CA2">
-        <v>-7.434714794158936</v>
+        <v>-7.999959945678711</v>
       </c>
       <c r="CB2">
-        <v>-2.783305644989014</v>
+        <v>-3.337761640548706</v>
       </c>
       <c r="CC2">
-        <v>-1.553033351898193</v>
+        <v>-1.51736307144165</v>
       </c>
       <c r="CD2">
-        <v>1.29507052898407</v>
+        <v>1.387061595916748</v>
       </c>
       <c r="CE2">
-        <v>9.527046203613281</v>
+        <v>9.593222618103027</v>
       </c>
       <c r="CF2">
-        <v>-11.14334297180176</v>
+        <v>-10.63516235351562</v>
       </c>
       <c r="CG2">
-        <v>-2.119203329086304</v>
+        <v>-1.635799527168274</v>
       </c>
       <c r="CH2">
-        <v>5.273783206939697</v>
+        <v>6.347107887268066</v>
       </c>
       <c r="CI2">
-        <v>-1.789336919784546</v>
+        <v>-1.930284142494202</v>
       </c>
       <c r="CJ2">
-        <v>-5.911770343780518</v>
+        <v>-5.672516822814941</v>
       </c>
       <c r="CK2">
-        <v>-2.826462268829346</v>
+        <v>-3.355115175247192</v>
       </c>
       <c r="CL2">
-        <v>2.993862152099609</v>
+        <v>3.301760911941528</v>
       </c>
       <c r="CM2">
-        <v>-7.024102210998535</v>
+        <v>-7.213161945343018</v>
       </c>
       <c r="CN2">
-        <v>-0.8053459525108337</v>
+        <v>-0.3124124705791473</v>
       </c>
       <c r="CO2">
-        <v>-1.263370394706726</v>
+        <v>-1.505854606628418</v>
       </c>
       <c r="CP2">
-        <v>2.288393497467041</v>
+        <v>2.281648635864258</v>
       </c>
       <c r="CQ2">
-        <v>0.6452566385269165</v>
+        <v>0.2737449705600739</v>
       </c>
       <c r="CR2">
-        <v>-1.051630854606628</v>
+        <v>-0.2012100666761398</v>
       </c>
       <c r="CS2">
-        <v>1.538272976875305</v>
+        <v>1.356875538825989</v>
       </c>
       <c r="CT2">
-        <v>-1.93160080909729</v>
+        <v>-1.904937386512756</v>
       </c>
       <c r="CU2">
-        <v>-1.853252410888672</v>
+        <v>-1.68704879283905</v>
       </c>
       <c r="CV2">
-        <v>2.27725076675415</v>
+        <v>2.98450756072998</v>
       </c>
       <c r="CW2">
-        <v>-7.029216766357422</v>
+        <v>-7.15131139755249</v>
       </c>
       <c r="CX2">
-        <v>2.045357465744019</v>
+        <v>1.319807529449463</v>
       </c>
       <c r="CY2">
-        <v>-2.005544900894165</v>
+        <v>-2.616615533828735</v>
       </c>
       <c r="CZ2">
-        <v>-0.5802419185638428</v>
+        <v>0.05822993442416191</v>
       </c>
       <c r="DA2">
-        <v>-2.380598545074463</v>
+        <v>-2.570967674255371</v>
       </c>
       <c r="DB2">
-        <v>-14.01966762542725</v>
+        <v>-13.41688251495361</v>
       </c>
       <c r="DC2">
-        <v>2.832382678985596</v>
+        <v>2.924175262451172</v>
       </c>
       <c r="DD2">
-        <v>-18.33758926391602</v>
+        <v>-17.4443302154541</v>
       </c>
       <c r="DE2">
-        <v>2.242286443710327</v>
+        <v>2.181939363479614</v>
       </c>
       <c r="DF2">
-        <v>-2.03406548500061</v>
+        <v>-1.385371804237366</v>
       </c>
       <c r="DG2">
-        <v>-0.194011390209198</v>
+        <v>-0.9009940028190613</v>
       </c>
       <c r="DH2">
-        <v>-1.312951326370239</v>
+        <v>-1.889521598815918</v>
       </c>
       <c r="DI2">
-        <v>0.9675391316413879</v>
+        <v>1.584381103515625</v>
       </c>
       <c r="DJ2">
-        <v>5.293147563934326</v>
+        <v>5.493421077728271</v>
       </c>
       <c r="DK2">
-        <v>-1.884172916412354</v>
+        <v>-1.593072891235352</v>
       </c>
       <c r="DL2">
-        <v>-2.929900884628296</v>
+        <v>-2.067272901535034</v>
       </c>
       <c r="DM2">
-        <v>4.814265251159668</v>
+        <v>4.124787330627441</v>
       </c>
       <c r="DN2">
-        <v>-1.870394468307495</v>
+        <v>-1.990068674087524</v>
       </c>
       <c r="DO2">
-        <v>-2.411219120025635</v>
+        <v>-3.117897272109985</v>
       </c>
       <c r="DP2">
-        <v>9.137849807739258</v>
+        <v>9.277834892272949</v>
       </c>
       <c r="DQ2">
-        <v>1.320086240768433</v>
+        <v>1.448000550270081</v>
       </c>
       <c r="DR2">
-        <v>2.267148017883301</v>
+        <v>2.241945266723633</v>
       </c>
       <c r="DS2">
-        <v>-0.3430532217025757</v>
+        <v>-0.2293070405721664</v>
       </c>
       <c r="DT2">
-        <v>-0.8992268443107605</v>
+        <v>-1.800338864326477</v>
       </c>
       <c r="DU2">
-        <v>0.9635829329490662</v>
+        <v>0.9724882245063782</v>
       </c>
       <c r="DV2">
-        <v>0.03265131264925003</v>
+        <v>-0.4242739379405975</v>
       </c>
       <c r="DW2">
-        <v>-1.801812410354614</v>
+        <v>-1.126668930053711</v>
       </c>
       <c r="DX2">
-        <v>-1.856387138366699</v>
+        <v>-1.735950350761414</v>
       </c>
       <c r="DY2">
-        <v>4.697607040405273</v>
+        <v>4.554817676544189</v>
       </c>
       <c r="DZ2">
-        <v>0.3462874591350555</v>
+        <v>-0.2869095504283905</v>
       </c>
       <c r="EA2">
-        <v>5.592828750610352</v>
+        <v>5.679595470428467</v>
       </c>
       <c r="EB2">
-        <v>-1.240352272987366</v>
+        <v>-1.21581757068634</v>
       </c>
       <c r="EC2">
-        <v>-1.666254639625549</v>
+        <v>-0.9899657964706421</v>
       </c>
       <c r="ED2">
-        <v>-5.15357780456543</v>
+        <v>-5.201881408691406</v>
       </c>
       <c r="EE2">
-        <v>-0.4732176661491394</v>
+        <v>-0.6435151696205139</v>
       </c>
       <c r="EF2">
-        <v>6.508815288543701</v>
+        <v>6.315248966217041</v>
       </c>
       <c r="EG2">
-        <v>0.3793128132820129</v>
+        <v>-0.3331613540649414</v>
       </c>
       <c r="EH2">
-        <v>-8.039748191833496</v>
+        <v>-7.437709808349609</v>
       </c>
       <c r="EI2">
-        <v>-1.884646773338318</v>
+        <v>-1.704071044921875</v>
       </c>
       <c r="EJ2">
-        <v>1.672131657600403</v>
+        <v>1.330836534500122</v>
       </c>
       <c r="EK2">
-        <v>1.323474764823914</v>
+        <v>1.675241351127625</v>
       </c>
       <c r="EL2">
-        <v>-0.7802929878234863</v>
+        <v>-1.095120668411255</v>
       </c>
       <c r="EM2">
-        <v>6.353648662567139</v>
+        <v>6.183958530426025</v>
       </c>
       <c r="EN2">
-        <v>0.3227175772190094</v>
+        <v>1.054107904434204</v>
       </c>
       <c r="EO2">
-        <v>3.624449491500854</v>
+        <v>4.131832122802734</v>
       </c>
       <c r="EP2">
-        <v>2.580325603485107</v>
+        <v>2.24393367767334</v>
       </c>
       <c r="EQ2">
-        <v>5.243076324462891</v>
+        <v>5.147102355957031</v>
       </c>
       <c r="ER2">
-        <v>-0.5013632774353027</v>
+        <v>-0.1292218416929245</v>
       </c>
       <c r="ES2">
-        <v>0.03133819624781609</v>
+        <v>0.4174116551876068</v>
       </c>
       <c r="ET2">
-        <v>-0.1713389009237289</v>
+        <v>-1.026552796363831</v>
       </c>
       <c r="EU2">
-        <v>-3.47690749168396</v>
+        <v>-4.165835380554199</v>
       </c>
       <c r="EV2">
-        <v>1.186721682548523</v>
+        <v>0.3725139200687408</v>
       </c>
       <c r="EW2">
-        <v>-5.660402297973633</v>
+        <v>-5.667200088500977</v>
       </c>
       <c r="EX2">
-        <v>-4.441727161407471</v>
+        <v>-4.879618167877197</v>
       </c>
       <c r="EY2">
-        <v>-0.1567222326993942</v>
+        <v>-0.009010637179017067</v>
       </c>
       <c r="EZ2">
-        <v>-6.679345607757568</v>
+        <v>-6.739870071411133</v>
       </c>
       <c r="FA2">
-        <v>1.385758996009827</v>
+        <v>1.728533267974854</v>
       </c>
       <c r="FB2">
-        <v>0.4142672717571259</v>
+        <v>0.4999278485774994</v>
       </c>
       <c r="FC2">
-        <v>-1.641953706741333</v>
+        <v>-2.0558180809021</v>
       </c>
       <c r="FD2">
-        <v>-1.698440670967102</v>
+        <v>-1.057535767555237</v>
       </c>
       <c r="FE2">
-        <v>9.549074172973633</v>
+        <v>9.622325897216797</v>
       </c>
       <c r="FF2">
-        <v>-10.65230464935303</v>
+        <v>-10.27046298980713</v>
       </c>
       <c r="FG2">
-        <v>-4.084134101867676</v>
+        <v>-3.117658138275146</v>
       </c>
       <c r="FH2">
-        <v>1.461867809295654</v>
+        <v>1.324779629707336</v>
       </c>
       <c r="FI2">
-        <v>5.745046615600586</v>
+        <v>5.274600028991699</v>
       </c>
       <c r="FJ2">
-        <v>-0.4079557657241821</v>
+        <v>-0.5290982127189636</v>
       </c>
       <c r="FK2">
-        <v>-16.77264595031738</v>
+        <v>-16.57086181640625</v>
       </c>
       <c r="FL2">
-        <v>12.26474475860596</v>
+        <v>11.70113372802734</v>
       </c>
       <c r="FM2">
-        <v>5.875095844268799</v>
+        <v>5.8641037940979</v>
       </c>
       <c r="FN2">
-        <v>-7.201716899871826</v>
+        <v>-6.81428050994873</v>
       </c>
       <c r="FO2">
-        <v>0.6265277862548828</v>
+        <v>1.456524014472961</v>
       </c>
       <c r="FP2">
-        <v>0.584277331829071</v>
+        <v>1.103714227676392</v>
       </c>
       <c r="FQ2">
-        <v>0.4316006302833557</v>
+        <v>0.2403823286294937</v>
       </c>
       <c r="FR2">
-        <v>1.450878024101257</v>
+        <v>1.589851140975952</v>
       </c>
       <c r="FS2">
-        <v>1.476084232330322</v>
+        <v>1.71114981174469</v>
       </c>
       <c r="FT2">
-        <v>2.902076959609985</v>
+        <v>2.541808366775513</v>
       </c>
       <c r="FU2">
-        <v>-4.2245774269104</v>
+        <v>-4.226556777954102</v>
       </c>
       <c r="FV2">
-        <v>-1.924265265464783</v>
+        <v>-2.52877140045166</v>
       </c>
       <c r="FW2">
-        <v>1.606116056442261</v>
+        <v>1.883956670761108</v>
       </c>
       <c r="FX2">
-        <v>0.8623175621032715</v>
+        <v>0.3399721682071686</v>
       </c>
       <c r="FY2">
-        <v>0.1868710964918137</v>
+        <v>0.7917233109474182</v>
       </c>
       <c r="FZ2">
-        <v>1.594655871391296</v>
+        <v>1.724093914031982</v>
       </c>
       <c r="GA2">
-        <v>5.678077220916748</v>
+        <v>5.875282764434814</v>
       </c>
       <c r="GB2">
-        <v>0.1203257516026497</v>
+        <v>-0.8058863282203674</v>
       </c>
       <c r="GC2">
-        <v>7.675788879394531</v>
+        <v>8.271323204040527</v>
       </c>
       <c r="GD2">
-        <v>-5.354115009307861</v>
+        <v>-4.83296012878418</v>
       </c>
       <c r="GE2">
-        <v>0.2361584156751633</v>
+        <v>-0.04603621736168861</v>
       </c>
       <c r="GF2">
-        <v>-0.05373365059494972</v>
+        <v>0.2150914072990417</v>
       </c>
       <c r="GG2">
-        <v>-2.612179040908813</v>
+        <v>-2.967206478118896</v>
       </c>
       <c r="GH2">
-        <v>-0.6206811666488647</v>
+        <v>-0.8519992828369141</v>
       </c>
       <c r="GI2">
-        <v>-3.437540292739868</v>
+        <v>-4.126638412475586</v>
       </c>
       <c r="GJ2">
-        <v>-2.451443195343018</v>
+        <v>-1.620694160461426</v>
       </c>
       <c r="GK2">
-        <v>-1.549316644668579</v>
+        <v>-0.6235923767089844</v>
       </c>
       <c r="GL2">
-        <v>2.717775583267212</v>
+        <v>3.05926775932312</v>
       </c>
       <c r="GM2">
-        <v>-5.327935218811035</v>
+        <v>-6.064465045928955</v>
       </c>
       <c r="GN2">
-        <v>0.8702541589736938</v>
+        <v>0.4015257656574249</v>
       </c>
       <c r="GO2">
-        <v>11.70174407958984</v>
+        <v>10.6381721496582</v>
       </c>
       <c r="GP2">
-        <v>-1.140826821327209</v>
+        <v>-0.9366346001625061</v>
       </c>
       <c r="GQ2">
-        <v>0.5723569989204407</v>
+        <v>0.2943211793899536</v>
       </c>
       <c r="GR2">
-        <v>-0.4307525455951691</v>
+        <v>-0.2215869724750519</v>
       </c>
       <c r="GS2">
-        <v>-3.786903619766235</v>
+        <v>-3.147759914398193</v>
       </c>
       <c r="GT2">
-        <v>-0.489807665348053</v>
+        <v>0.02021901682019234</v>
       </c>
       <c r="GU2">
-        <v>2.204462766647339</v>
+        <v>2.350354433059692</v>
       </c>
       <c r="GV2">
-        <v>1.028403282165527</v>
+        <v>-0.1009561195969582</v>
       </c>
       <c r="GW2">
-        <v>-6.723423480987549</v>
+        <v>-7.24067497253418</v>
       </c>
       <c r="GX2">
-        <v>-0.8669676184654236</v>
+        <v>-0.3176955878734589</v>
       </c>
       <c r="GY2">
-        <v>-1.714324116706848</v>
+        <v>-1.783199906349182</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>3.130480289459229</v>
+        <v>2.260378360748291</v>
       </c>
       <c r="C2">
-        <v>-12.93792629241943</v>
+        <v>-12.02742004394531</v>
       </c>
       <c r="D2">
-        <v>5.736561298370361</v>
+        <v>5.048676013946533</v>
       </c>
       <c r="E2">
-        <v>1.5931636095047</v>
+        <v>0.6592840552330017</v>
       </c>
       <c r="F2">
-        <v>2.184783935546875</v>
+        <v>1.250720620155334</v>
       </c>
       <c r="G2">
-        <v>0.7425821423530579</v>
+        <v>1.259277701377869</v>
       </c>
       <c r="H2">
-        <v>1.293557286262512</v>
+        <v>0.9805240035057068</v>
       </c>
       <c r="I2">
-        <v>2.526492834091187</v>
+        <v>2.16263484954834</v>
       </c>
       <c r="J2">
-        <v>-4.902971744537354</v>
+        <v>-6.032595634460449</v>
       </c>
       <c r="K2">
-        <v>-0.20814149081707</v>
+        <v>-0.6614511013031006</v>
       </c>
       <c r="L2">
-        <v>2.901273727416992</v>
+        <v>3.444784164428711</v>
       </c>
       <c r="M2">
-        <v>0.6355124115943909</v>
+        <v>1.148781061172485</v>
       </c>
       <c r="N2">
-        <v>-2.007874488830566</v>
+        <v>-2.711369276046753</v>
       </c>
       <c r="O2">
-        <v>0.4637817442417145</v>
+        <v>0.5478258728981018</v>
       </c>
       <c r="P2">
-        <v>3.917029857635498</v>
+        <v>5.616132736206055</v>
       </c>
       <c r="Q2">
-        <v>1.115863442420959</v>
+        <v>2.730246305465698</v>
       </c>
       <c r="R2">
-        <v>-0.3439851105213165</v>
+        <v>-0.7692899107933044</v>
       </c>
       <c r="S2">
-        <v>4.30377197265625</v>
+        <v>3.976696014404297</v>
       </c>
       <c r="T2">
-        <v>-2.604284763336182</v>
+        <v>-1.835441946983337</v>
       </c>
       <c r="U2">
-        <v>-8.859657287597656</v>
+        <v>-10.64807891845703</v>
       </c>
       <c r="V2">
-        <v>-0.9386340379714966</v>
+        <v>0.1662361323833466</v>
       </c>
       <c r="W2">
-        <v>-7.067704200744629</v>
+        <v>-7.780369758605957</v>
       </c>
       <c r="X2">
-        <v>-0.5897232294082642</v>
+        <v>-0.1151658296585083</v>
       </c>
       <c r="Y2">
-        <v>-6.115894794464111</v>
+        <v>-4.739624500274658</v>
       </c>
       <c r="Z2">
-        <v>-8.516912460327148</v>
+        <v>-7.737407207489014</v>
       </c>
       <c r="AA2">
-        <v>0.2216222435235977</v>
+        <v>-1.303343415260315</v>
       </c>
       <c r="AB2">
-        <v>6.971585750579834</v>
+        <v>5.829343318939209</v>
       </c>
       <c r="AC2">
-        <v>-3.115450620651245</v>
+        <v>-3.703693151473999</v>
       </c>
       <c r="AD2">
-        <v>-1.351284027099609</v>
+        <v>-0.3593901693820953</v>
       </c>
       <c r="AE2">
-        <v>-10.824631690979</v>
+        <v>-11.5588207244873</v>
       </c>
       <c r="AF2">
-        <v>1.030156970024109</v>
+        <v>0.8533167243003845</v>
       </c>
       <c r="AG2">
-        <v>-0.5446039438247681</v>
+        <v>-1.192410111427307</v>
       </c>
       <c r="AH2">
-        <v>-21.51325607299805</v>
+        <v>-21.74171257019043</v>
       </c>
       <c r="AI2">
-        <v>-5.797033309936523</v>
+        <v>-6.320329189300537</v>
       </c>
       <c r="AJ2">
-        <v>-2.738815784454346</v>
+        <v>-1.52349853515625</v>
       </c>
       <c r="AK2">
-        <v>0.6945456266403198</v>
+        <v>0.6877618432044983</v>
       </c>
       <c r="AL2">
-        <v>-2.505768060684204</v>
+        <v>-2.741099834442139</v>
       </c>
       <c r="AM2">
-        <v>4.311859130859375</v>
+        <v>4.222935199737549</v>
       </c>
       <c r="AN2">
-        <v>14.32254695892334</v>
+        <v>14.42455863952637</v>
       </c>
       <c r="AO2">
-        <v>-4.365035057067871</v>
+        <v>-3.80029821395874</v>
       </c>
       <c r="AP2">
-        <v>-0.2027339190244675</v>
+        <v>-0.174525648355484</v>
       </c>
       <c r="AQ2">
-        <v>-4.044056415557861</v>
+        <v>-3.607588768005371</v>
       </c>
       <c r="AR2">
-        <v>4.245655059814453</v>
+        <v>5.655022621154785</v>
       </c>
       <c r="AS2">
-        <v>-1.631335735321045</v>
+        <v>-1.566081166267395</v>
       </c>
       <c r="AT2">
-        <v>5.514768123626709</v>
+        <v>6.802460193634033</v>
       </c>
       <c r="AU2">
-        <v>-12.15020656585693</v>
+        <v>-11.77095222473145</v>
       </c>
       <c r="AV2">
-        <v>7.037415981292725</v>
+        <v>7.238418579101562</v>
       </c>
       <c r="AW2">
-        <v>-0.931405246257782</v>
+        <v>-1.552385330200195</v>
       </c>
       <c r="AX2">
-        <v>-0.07732135057449341</v>
+        <v>0.4648351073265076</v>
       </c>
       <c r="AY2">
-        <v>7.080896854400635</v>
+        <v>7.907677173614502</v>
       </c>
       <c r="AZ2">
-        <v>-11.02423858642578</v>
+        <v>-11.75407886505127</v>
       </c>
       <c r="BA2">
-        <v>-18.42637634277344</v>
+        <v>-17.45242691040039</v>
       </c>
       <c r="BB2">
-        <v>4.066152572631836</v>
+        <v>5.500618934631348</v>
       </c>
       <c r="BC2">
-        <v>1.777973413467407</v>
+        <v>1.185052871704102</v>
       </c>
       <c r="BD2">
-        <v>-1.003526210784912</v>
+        <v>-0.04858101904392242</v>
       </c>
       <c r="BE2">
-        <v>0.7755630612373352</v>
+        <v>-0.1107375249266624</v>
       </c>
       <c r="BF2">
-        <v>6.684316158294678</v>
+        <v>8.148847579956055</v>
       </c>
       <c r="BG2">
-        <v>-1.533892154693604</v>
+        <v>-0.3661769926548004</v>
       </c>
       <c r="BH2">
-        <v>-0.6131669878959656</v>
+        <v>0.4491463601589203</v>
       </c>
       <c r="BI2">
-        <v>-1.182835578918457</v>
+        <v>-0.1559272557497025</v>
       </c>
       <c r="BJ2">
-        <v>-2.590897560119629</v>
+        <v>-1.633074402809143</v>
       </c>
       <c r="BK2">
-        <v>1.363489985466003</v>
+        <v>1.631683707237244</v>
       </c>
       <c r="BL2">
-        <v>3.198380470275879</v>
+        <v>1.989287257194519</v>
       </c>
       <c r="BM2">
-        <v>5.69059944152832</v>
+        <v>4.564637660980225</v>
       </c>
       <c r="BN2">
-        <v>-15.00390434265137</v>
+        <v>-15.3159008026123</v>
       </c>
       <c r="BO2">
-        <v>-5.887280464172363</v>
+        <v>-5.904457569122314</v>
       </c>
       <c r="BP2">
-        <v>-7.049173355102539</v>
+        <v>-7.816123008728027</v>
       </c>
       <c r="BQ2">
-        <v>11.66050624847412</v>
+        <v>11.82002639770508</v>
       </c>
       <c r="BR2">
-        <v>-1.32628059387207</v>
+        <v>-1.738789916038513</v>
       </c>
       <c r="BS2">
-        <v>-2.163434743881226</v>
+        <v>-1.186473727226257</v>
       </c>
       <c r="BT2">
-        <v>0.3220535814762115</v>
+        <v>-1.097176074981689</v>
       </c>
       <c r="BU2">
-        <v>-0.3947457671165466</v>
+        <v>0.9778830409049988</v>
       </c>
       <c r="BV2">
-        <v>-4.630327224731445</v>
+        <v>-4.810900211334229</v>
       </c>
       <c r="BW2">
-        <v>-0.002701821736991405</v>
+        <v>-1.208021402359009</v>
       </c>
       <c r="BX2">
-        <v>-11.42226123809814</v>
+        <v>-12.68998241424561</v>
       </c>
       <c r="BY2">
-        <v>-1.840684652328491</v>
+        <v>-1.595748543739319</v>
       </c>
       <c r="BZ2">
-        <v>-3.719340085983276</v>
+        <v>-4.476380825042725</v>
       </c>
       <c r="CA2">
-        <v>-7.999959945678711</v>
+        <v>-7.922328948974609</v>
       </c>
       <c r="CB2">
-        <v>-3.337761640548706</v>
+        <v>-2.675466537475586</v>
       </c>
       <c r="CC2">
-        <v>-1.51736307144165</v>
+        <v>-0.5078189373016357</v>
       </c>
       <c r="CD2">
-        <v>1.387061595916748</v>
+        <v>1.461131811141968</v>
       </c>
       <c r="CE2">
-        <v>9.593222618103027</v>
+        <v>10.06191730499268</v>
       </c>
       <c r="CF2">
-        <v>-10.63516235351562</v>
+        <v>-11.31512451171875</v>
       </c>
       <c r="CG2">
-        <v>-1.635799527168274</v>
+        <v>-1.445818901062012</v>
       </c>
       <c r="CH2">
-        <v>6.347107887268066</v>
+        <v>5.565350532531738</v>
       </c>
       <c r="CI2">
-        <v>-1.930284142494202</v>
+        <v>-1.225871801376343</v>
       </c>
       <c r="CJ2">
-        <v>-5.672516822814941</v>
+        <v>-4.401618003845215</v>
       </c>
       <c r="CK2">
-        <v>-3.355115175247192</v>
+        <v>-2.157750606536865</v>
       </c>
       <c r="CL2">
-        <v>3.301760911941528</v>
+        <v>2.284484148025513</v>
       </c>
       <c r="CM2">
-        <v>-7.213161945343018</v>
+        <v>-5.811005115509033</v>
       </c>
       <c r="CN2">
-        <v>-0.3124124705791473</v>
+        <v>0.9541474580764771</v>
       </c>
       <c r="CO2">
-        <v>-1.505854606628418</v>
+        <v>-1.18457567691803</v>
       </c>
       <c r="CP2">
-        <v>2.281648635864258</v>
+        <v>3.794075965881348</v>
       </c>
       <c r="CQ2">
-        <v>0.2737449705600739</v>
+        <v>0.6419941782951355</v>
       </c>
       <c r="CR2">
-        <v>-0.2012100666761398</v>
+        <v>0.008805970661342144</v>
       </c>
       <c r="CS2">
-        <v>1.356875538825989</v>
+        <v>1.911205053329468</v>
       </c>
       <c r="CT2">
-        <v>-1.904937386512756</v>
+        <v>-1.366032242774963</v>
       </c>
       <c r="CU2">
-        <v>-1.68704879283905</v>
+        <v>-1.016463875770569</v>
       </c>
       <c r="CV2">
-        <v>2.98450756072998</v>
+        <v>1.972808241844177</v>
       </c>
       <c r="CW2">
-        <v>-7.15131139755249</v>
+        <v>-7.242635726928711</v>
       </c>
       <c r="CX2">
-        <v>1.319807529449463</v>
+        <v>2.674018621444702</v>
       </c>
       <c r="CY2">
-        <v>-2.616615533828735</v>
+        <v>-2.903482437133789</v>
       </c>
       <c r="CZ2">
-        <v>0.05822993442416191</v>
+        <v>-1.372285127639771</v>
       </c>
       <c r="DA2">
-        <v>-2.570967674255371</v>
+        <v>-4.133010864257812</v>
       </c>
       <c r="DB2">
-        <v>-13.41688251495361</v>
+        <v>-12.46340274810791</v>
       </c>
       <c r="DC2">
-        <v>2.924175262451172</v>
+        <v>3.436928272247314</v>
       </c>
       <c r="DD2">
-        <v>-17.4443302154541</v>
+        <v>-18.67416572570801</v>
       </c>
       <c r="DE2">
-        <v>2.181939363479614</v>
+        <v>2.563564538955688</v>
       </c>
       <c r="DF2">
-        <v>-1.385371804237366</v>
+        <v>-2.592236280441284</v>
       </c>
       <c r="DG2">
-        <v>-0.9009940028190613</v>
+        <v>-2.033571004867554</v>
       </c>
       <c r="DH2">
-        <v>-1.889521598815918</v>
+        <v>-1.457417964935303</v>
       </c>
       <c r="DI2">
-        <v>1.584381103515625</v>
+        <v>1.664568066596985</v>
       </c>
       <c r="DJ2">
-        <v>5.493421077728271</v>
+        <v>4.511196136474609</v>
       </c>
       <c r="DK2">
-        <v>-1.593072891235352</v>
+        <v>-0.8556805849075317</v>
       </c>
       <c r="DL2">
-        <v>-2.067272901535034</v>
+        <v>-1.84015691280365</v>
       </c>
       <c r="DM2">
-        <v>4.124787330627441</v>
+        <v>5.15300464630127</v>
       </c>
       <c r="DN2">
-        <v>-1.990068674087524</v>
+        <v>-0.7309733033180237</v>
       </c>
       <c r="DO2">
-        <v>-3.117897272109985</v>
+        <v>-2.658241510391235</v>
       </c>
       <c r="DP2">
-        <v>9.277834892272949</v>
+        <v>8.403802871704102</v>
       </c>
       <c r="DQ2">
-        <v>1.448000550270081</v>
+        <v>1.835269093513489</v>
       </c>
       <c r="DR2">
-        <v>2.241945266723633</v>
+        <v>1.649595499038696</v>
       </c>
       <c r="DS2">
-        <v>-0.2293070405721664</v>
+        <v>1.32684338092804</v>
       </c>
       <c r="DT2">
-        <v>-1.800338864326477</v>
+        <v>-1.388914465904236</v>
       </c>
       <c r="DU2">
-        <v>0.9724882245063782</v>
+        <v>0.334456592798233</v>
       </c>
       <c r="DV2">
-        <v>-0.4242739379405975</v>
+        <v>0.9847074151039124</v>
       </c>
       <c r="DW2">
-        <v>-1.126668930053711</v>
+        <v>-0.6464646458625793</v>
       </c>
       <c r="DX2">
-        <v>-1.735950350761414</v>
+        <v>-0.6258922815322876</v>
       </c>
       <c r="DY2">
-        <v>4.554817676544189</v>
+        <v>5.670960426330566</v>
       </c>
       <c r="DZ2">
-        <v>-0.2869095504283905</v>
+        <v>0.7970916032791138</v>
       </c>
       <c r="EA2">
-        <v>5.679595470428467</v>
+        <v>7.006322860717773</v>
       </c>
       <c r="EB2">
-        <v>-1.21581757068634</v>
+        <v>-0.5839181542396545</v>
       </c>
       <c r="EC2">
-        <v>-0.9899657964706421</v>
+        <v>0.695749044418335</v>
       </c>
       <c r="ED2">
-        <v>-5.201881408691406</v>
+        <v>-4.445640087127686</v>
       </c>
       <c r="EE2">
-        <v>-0.6435151696205139</v>
+        <v>-0.3868682682514191</v>
       </c>
       <c r="EF2">
-        <v>6.315248966217041</v>
+        <v>6.076285839080811</v>
       </c>
       <c r="EG2">
-        <v>-0.3331613540649414</v>
+        <v>-1.069831013679504</v>
       </c>
       <c r="EH2">
-        <v>-7.437709808349609</v>
+        <v>-9.512773513793945</v>
       </c>
       <c r="EI2">
-        <v>-1.704071044921875</v>
+        <v>-1.999098420143127</v>
       </c>
       <c r="EJ2">
-        <v>1.330836534500122</v>
+        <v>2.982227325439453</v>
       </c>
       <c r="EK2">
-        <v>1.675241351127625</v>
+        <v>1.483246326446533</v>
       </c>
       <c r="EL2">
-        <v>-1.095120668411255</v>
+        <v>-0.2975452840328217</v>
       </c>
       <c r="EM2">
-        <v>6.183958530426025</v>
+        <v>5.636229991912842</v>
       </c>
       <c r="EN2">
-        <v>1.054107904434204</v>
+        <v>1.553195595741272</v>
       </c>
       <c r="EO2">
-        <v>4.131832122802734</v>
+        <v>4.292385578155518</v>
       </c>
       <c r="EP2">
-        <v>2.24393367767334</v>
+        <v>3.52754545211792</v>
       </c>
       <c r="EQ2">
-        <v>5.147102355957031</v>
+        <v>5.351469993591309</v>
       </c>
       <c r="ER2">
-        <v>-0.1292218416929245</v>
+        <v>-1.227773785591125</v>
       </c>
       <c r="ES2">
-        <v>0.4174116551876068</v>
+        <v>-0.4810981452465057</v>
       </c>
       <c r="ET2">
-        <v>-1.026552796363831</v>
+        <v>0.2050525993108749</v>
       </c>
       <c r="EU2">
-        <v>-4.165835380554199</v>
+        <v>-4.590738296508789</v>
       </c>
       <c r="EV2">
-        <v>0.3725139200687408</v>
+        <v>1.737494707107544</v>
       </c>
       <c r="EW2">
-        <v>-5.667200088500977</v>
+        <v>-5.224794864654541</v>
       </c>
       <c r="EX2">
-        <v>-4.879618167877197</v>
+        <v>-5.252785205841064</v>
       </c>
       <c r="EY2">
-        <v>-0.009010637179017067</v>
+        <v>0.9112427830696106</v>
       </c>
       <c r="EZ2">
-        <v>-6.739870071411133</v>
+        <v>-6.249771595001221</v>
       </c>
       <c r="FA2">
-        <v>1.728533267974854</v>
+        <v>0.5234574675559998</v>
       </c>
       <c r="FB2">
-        <v>0.4999278485774994</v>
+        <v>0.887956440448761</v>
       </c>
       <c r="FC2">
-        <v>-2.0558180809021</v>
+        <v>-1.64919900894165</v>
       </c>
       <c r="FD2">
-        <v>-1.057535767555237</v>
+        <v>-2.644120693206787</v>
       </c>
       <c r="FE2">
-        <v>9.622325897216797</v>
+        <v>10.22705173492432</v>
       </c>
       <c r="FF2">
-        <v>-10.27046298980713</v>
+        <v>-10.14844036102295</v>
       </c>
       <c r="FG2">
-        <v>-3.117658138275146</v>
+        <v>-4.378514289855957</v>
       </c>
       <c r="FH2">
-        <v>1.324779629707336</v>
+        <v>-0.4671214818954468</v>
       </c>
       <c r="FI2">
-        <v>5.274600028991699</v>
+        <v>6.757393836975098</v>
       </c>
       <c r="FJ2">
-        <v>-0.5290982127189636</v>
+        <v>-0.2632173895835876</v>
       </c>
       <c r="FK2">
-        <v>-16.57086181640625</v>
+        <v>-15.52178001403809</v>
       </c>
       <c r="FL2">
-        <v>11.70113372802734</v>
+        <v>10.74709796905518</v>
       </c>
       <c r="FM2">
-        <v>5.8641037940979</v>
+        <v>5.072066783905029</v>
       </c>
       <c r="FN2">
-        <v>-6.81428050994873</v>
+        <v>-8.102621078491211</v>
       </c>
       <c r="FO2">
-        <v>1.456524014472961</v>
+        <v>1.521099805831909</v>
       </c>
       <c r="FP2">
-        <v>1.103714227676392</v>
+        <v>0.02451676316559315</v>
       </c>
       <c r="FQ2">
-        <v>0.2403823286294937</v>
+        <v>0.7213756442070007</v>
       </c>
       <c r="FR2">
-        <v>1.589851140975952</v>
+        <v>1.977066159248352</v>
       </c>
       <c r="FS2">
-        <v>1.71114981174469</v>
+        <v>1.567326307296753</v>
       </c>
       <c r="FT2">
-        <v>2.541808366775513</v>
+        <v>2.51019811630249</v>
       </c>
       <c r="FU2">
-        <v>-4.226556777954102</v>
+        <v>-3.624098539352417</v>
       </c>
       <c r="FV2">
-        <v>-2.52877140045166</v>
+        <v>-1.22356379032135</v>
       </c>
       <c r="FW2">
-        <v>1.883956670761108</v>
+        <v>2.848577499389648</v>
       </c>
       <c r="FX2">
-        <v>0.3399721682071686</v>
+        <v>-0.2620852589607239</v>
       </c>
       <c r="FY2">
-        <v>0.7917233109474182</v>
+        <v>1.498643279075623</v>
       </c>
       <c r="FZ2">
-        <v>1.724093914031982</v>
+        <v>-0.3404651582241058</v>
       </c>
       <c r="GA2">
-        <v>5.875282764434814</v>
+        <v>5.185170650482178</v>
       </c>
       <c r="GB2">
-        <v>-0.8058863282203674</v>
+        <v>0.3882315158843994</v>
       </c>
       <c r="GC2">
-        <v>8.271323204040527</v>
+        <v>9.015167236328125</v>
       </c>
       <c r="GD2">
-        <v>-4.83296012878418</v>
+        <v>-4.316751480102539</v>
       </c>
       <c r="GE2">
-        <v>-0.04603621736168861</v>
+        <v>0.7709989547729492</v>
       </c>
       <c r="GF2">
-        <v>0.2150914072990417</v>
+        <v>-1.91219174861908</v>
       </c>
       <c r="GG2">
-        <v>-2.967206478118896</v>
+        <v>-4.489792823791504</v>
       </c>
       <c r="GH2">
-        <v>-0.8519992828369141</v>
+        <v>0.3859177529811859</v>
       </c>
       <c r="GI2">
-        <v>-4.126638412475586</v>
+        <v>-5.247492790222168</v>
       </c>
       <c r="GJ2">
-        <v>-1.620694160461426</v>
+        <v>-1.091445446014404</v>
       </c>
       <c r="GK2">
-        <v>-0.6235923767089844</v>
+        <v>-2.550493478775024</v>
       </c>
       <c r="GL2">
-        <v>3.05926775932312</v>
+        <v>2.90217661857605</v>
       </c>
       <c r="GM2">
-        <v>-6.064465045928955</v>
+        <v>-4.509726524353027</v>
       </c>
       <c r="GN2">
-        <v>0.4015257656574249</v>
+        <v>0.8494304418563843</v>
       </c>
       <c r="GO2">
-        <v>10.6381721496582</v>
+        <v>11.10364723205566</v>
       </c>
       <c r="GP2">
-        <v>-0.9366346001625061</v>
+        <v>-0.282570481300354</v>
       </c>
       <c r="GQ2">
-        <v>0.2943211793899536</v>
+        <v>-0.9934226870536804</v>
       </c>
       <c r="GR2">
-        <v>-0.2215869724750519</v>
+        <v>-0.05965548753738403</v>
       </c>
       <c r="GS2">
-        <v>-3.147759914398193</v>
+        <v>-2.726341247558594</v>
       </c>
       <c r="GT2">
-        <v>0.02021901682019234</v>
+        <v>1.28619647026062</v>
       </c>
       <c r="GU2">
-        <v>2.350354433059692</v>
+        <v>1.179356694221497</v>
       </c>
       <c r="GV2">
-        <v>-0.1009561195969582</v>
+        <v>0.2300207316875458</v>
       </c>
       <c r="GW2">
-        <v>-7.24067497253418</v>
+        <v>-8.054097175598145</v>
       </c>
       <c r="GX2">
-        <v>-0.3176955878734589</v>
+        <v>1.102752089500427</v>
       </c>
       <c r="GY2">
-        <v>-1.783199906349182</v>
+        <v>-0.7833345532417297</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.257289886474609</v>
+        <v>2.717235326766968</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.71257591247559</v>
+        <v>-12.14531230926514</v>
       </c>
       <c r="D2" t="n">
-        <v>5.648080348968506</v>
+        <v>5.419808864593506</v>
       </c>
       <c r="E2" t="n">
-        <v>1.479879021644592</v>
+        <v>2.126830816268921</v>
       </c>
       <c r="F2" t="n">
-        <v>2.031152725219727</v>
+        <v>2.517261743545532</v>
       </c>
       <c r="G2" t="n">
-        <v>2.339970350265503</v>
+        <v>1.423230528831482</v>
       </c>
       <c r="H2" t="n">
-        <v>1.639410138130188</v>
+        <v>1.075187563896179</v>
       </c>
       <c r="I2" t="n">
-        <v>1.816193222999573</v>
+        <v>1.847128510475159</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.254106044769287</v>
+        <v>-4.545629024505615</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1214166954159737</v>
+        <v>0.3158728182315826</v>
       </c>
       <c r="L2" t="n">
-        <v>4.084370613098145</v>
+        <v>4.280662059783936</v>
       </c>
       <c r="M2" t="n">
-        <v>2.000693082809448</v>
+        <v>2.757398128509521</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.677492141723633</v>
+        <v>-0.8599892854690552</v>
       </c>
       <c r="O2" t="n">
-        <v>1.534221887588501</v>
+        <v>1.188148736953735</v>
       </c>
       <c r="P2" t="n">
-        <v>5.625601291656494</v>
+        <v>5.068671226501465</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.873496532440186</v>
+        <v>2.670919179916382</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.524204969406128</v>
+        <v>-0.7562786936759949</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9178626537323</v>
+        <v>2.536948919296265</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.579454183578491</v>
+        <v>-1.899833679199219</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.4371862411499</v>
+        <v>-9.711127281188965</v>
       </c>
       <c r="V2" t="n">
-        <v>0.688184916973114</v>
+        <v>1.526209473609924</v>
       </c>
       <c r="W2" t="n">
-        <v>-8.537551879882812</v>
+        <v>-7.862513065338135</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8806682229042053</v>
+        <v>-0.5952373743057251</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.42310094833374</v>
+        <v>-4.857489109039307</v>
       </c>
       <c r="Z2" t="n">
-        <v>-6.782524108886719</v>
+        <v>-6.33090353012085</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8983029127120972</v>
+        <v>-0.6203550696372986</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.134911060333252</v>
+        <v>5.924597263336182</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.170243501663208</v>
+        <v>-3.556487560272217</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6818029880523682</v>
+        <v>-0.9432681798934937</v>
       </c>
       <c r="AE2" t="n">
-        <v>-11.45808887481689</v>
+        <v>-11.1983118057251</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.345941781997681</v>
+        <v>1.554451107978821</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.7276596426963806</v>
+        <v>-1.090808510780334</v>
       </c>
       <c r="AH2" t="n">
-        <v>-20.97868728637695</v>
+        <v>-21.72204780578613</v>
       </c>
       <c r="AI2" t="n">
-        <v>-5.561222553253174</v>
+        <v>-5.49900484085083</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.034796476364136</v>
+        <v>-1.875156044960022</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.338367581367493</v>
+        <v>1.718349456787109</v>
       </c>
       <c r="AL2" t="n">
-        <v>-3.036064863204956</v>
+        <v>-2.388261556625366</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.582273006439209</v>
+        <v>3.722915887832642</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.56739902496338</v>
+        <v>12.81051921844482</v>
       </c>
       <c r="AO2" t="n">
-        <v>-3.891132831573486</v>
+        <v>-4.577813625335693</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.097154378890991</v>
+        <v>-1.324498057365417</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-4.229476928710938</v>
+        <v>-3.323093891143799</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.125590324401855</v>
+        <v>5.932979106903076</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.454694747924805</v>
+        <v>-3.277500152587891</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.919271469116211</v>
+        <v>6.040770530700684</v>
       </c>
       <c r="AU2" t="n">
-        <v>-12.59437465667725</v>
+        <v>-13.4080867767334</v>
       </c>
       <c r="AV2" t="n">
-        <v>7.681349754333496</v>
+        <v>7.38862133026123</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.465616941452026</v>
+        <v>-2.425990343093872</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2487469762563705</v>
+        <v>0.9207962155342102</v>
       </c>
       <c r="AY2" t="n">
-        <v>6.934025764465332</v>
+        <v>7.62291145324707</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-10.87074947357178</v>
+        <v>-11.58122634887695</v>
       </c>
       <c r="BA2" t="n">
-        <v>-18.11262512207031</v>
+        <v>-17.28660583496094</v>
       </c>
       <c r="BB2" t="n">
-        <v>6.250545501708984</v>
+        <v>7.076066970825195</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.62850558757782</v>
+        <v>0.7423720359802246</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.3865285813808441</v>
+        <v>-0.6201868653297424</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.6913645267486572</v>
+        <v>0.03369817510247231</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.580147266387939</v>
+        <v>8.384639739990234</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.6601595282554626</v>
+        <v>-0.5661243796348572</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.1656315177679062</v>
+        <v>0.6370967626571655</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.6183017492294312</v>
+        <v>0.5558757781982422</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.024858593940735</v>
+        <v>-1.472049951553345</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.9224442839622498</v>
+        <v>0.1356202363967896</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.221147060394287</v>
+        <v>1.4422287940979</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.159541606903076</v>
+        <v>4.909940719604492</v>
       </c>
       <c r="BN2" t="n">
-        <v>-15.45830917358398</v>
+        <v>-14.96109008789062</v>
       </c>
       <c r="BO2" t="n">
-        <v>-6.587721347808838</v>
+        <v>-6.016554355621338</v>
       </c>
       <c r="BP2" t="n">
-        <v>-7.387660503387451</v>
+        <v>-6.754382610321045</v>
       </c>
       <c r="BQ2" t="n">
-        <v>12.55038261413574</v>
+        <v>12.10449981689453</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.891351044178009</v>
+        <v>-0.3657949268817902</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.967130422592163</v>
+        <v>-1.280208587646484</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.5742652416229248</v>
+        <v>-0.121464341878891</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.5573752522468567</v>
+        <v>1.194145083427429</v>
       </c>
       <c r="BV2" t="n">
-        <v>-3.933551073074341</v>
+        <v>-4.765251159667969</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.5251909494400024</v>
+        <v>-1.069266319274902</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.9343147277832</v>
+        <v>-11.14196681976318</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.7636708617210388</v>
+        <v>-0.3404628336429596</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.743230104446411</v>
+        <v>-3.078345537185669</v>
       </c>
       <c r="CA2" t="n">
-        <v>-8.816283226013184</v>
+        <v>-9.41184139251709</v>
       </c>
       <c r="CB2" t="n">
-        <v>-3.434911966323853</v>
+        <v>-4.195629596710205</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.5939438343048096</v>
+        <v>-0.3438716530799866</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.3673461973667145</v>
+        <v>-0.1761414706707001</v>
       </c>
       <c r="CE2" t="n">
-        <v>10.98128890991211</v>
+        <v>10.30684661865234</v>
       </c>
       <c r="CF2" t="n">
-        <v>-10.6009635925293</v>
+        <v>-10.46368789672852</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.5140644311904907</v>
+        <v>0.133205458521843</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.019780158996582</v>
+        <v>5.752918243408203</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.429258942604065</v>
+        <v>-1.937856674194336</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-4.878792285919189</v>
+        <v>-5.963994979858398</v>
       </c>
       <c r="CK2" t="n">
-        <v>-2.349990129470825</v>
+        <v>-1.646854519844055</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.906417489051819</v>
+        <v>2.21869969367981</v>
       </c>
       <c r="CM2" t="n">
-        <v>-6.223984718322754</v>
+        <v>-6.917747974395752</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.007955972105264664</v>
+        <v>-0.4699725210666656</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.694266557693481</v>
+        <v>-2.087228059768677</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.988271951675415</v>
+        <v>3.694495677947998</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.8533990383148193</v>
+        <v>1.655789136886597</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.7198644280433655</v>
+        <v>-0.00477245869114995</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.827624678611755</v>
+        <v>1.444297671318054</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.538289427757263</v>
+        <v>-1.464608430862427</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.67873740196228</v>
+        <v>-2.269718408584595</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.582379817962646</v>
+        <v>3.018731355667114</v>
       </c>
       <c r="CW2" t="n">
-        <v>-8.103513717651367</v>
+        <v>-7.432159423828125</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.092318296432495</v>
+        <v>2.004482269287109</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.83161997795105</v>
+        <v>-4.602017402648926</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.8645262718200684</v>
+        <v>-0.5516920685768127</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.341249942779541</v>
+        <v>-2.673909425735474</v>
       </c>
       <c r="DB2" t="n">
-        <v>-13.56924057006836</v>
+        <v>-14.1481409072876</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.59542989730835</v>
+        <v>3.522836208343506</v>
       </c>
       <c r="DD2" t="n">
-        <v>-17.89202690124512</v>
+        <v>-17.08780670166016</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.997045040130615</v>
+        <v>2.627060413360596</v>
       </c>
       <c r="DF2" t="n">
-        <v>-3.410243272781372</v>
+        <v>-3.76154637336731</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.066360116004944</v>
+        <v>-1.556241989135742</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.5482071042060852</v>
+        <v>0.2768653929233551</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9297465085983276</v>
+        <v>0.1018951386213303</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.098522663116455</v>
+        <v>5.457236289978027</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.104284644126892</v>
+        <v>-2.328485250473022</v>
       </c>
       <c r="DL2" t="n">
-        <v>-2.483502626419067</v>
+        <v>-2.672233819961548</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.329122543334961</v>
+        <v>5.09517240524292</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.097696423530579</v>
+        <v>-1.163011193275452</v>
       </c>
       <c r="DO2" t="n">
-        <v>-3.09070897102356</v>
+        <v>-3.62878155708313</v>
       </c>
       <c r="DP2" t="n">
-        <v>8.210566520690918</v>
+        <v>8.682632446289062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.252933263778687</v>
+        <v>1.850988030433655</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.950987696647644</v>
+        <v>1.234959006309509</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.6172887682914734</v>
+        <v>1.223753452301025</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.342548012733459</v>
+        <v>-0.7929052710533142</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.4969158172607422</v>
+        <v>-1.766141772270203</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.3327706456184387</v>
+        <v>1.37224805355072</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.2380327731370926</v>
+        <v>-0.480604887008667</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.9219626784324646</v>
+        <v>-1.275056481361389</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.288368225097656</v>
+        <v>6.055001258850098</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.1129456162452698</v>
+        <v>0.5304664373397827</v>
       </c>
       <c r="EA2" t="n">
-        <v>6.389089107513428</v>
+        <v>5.556424617767334</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.789358913898468</v>
+        <v>-1.124853849411011</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00487202312797308</v>
+        <v>-0.9227941036224365</v>
       </c>
       <c r="ED2" t="n">
-        <v>-4.292716026306152</v>
+        <v>-4.60005521774292</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.01170129328966141</v>
+        <v>-0.07039528340101242</v>
       </c>
       <c r="EF2" t="n">
-        <v>6.331814765930176</v>
+        <v>6.948026180267334</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.060567855834961</v>
+        <v>-1.429429769515991</v>
       </c>
       <c r="EH2" t="n">
-        <v>-8.692092895507812</v>
+        <v>-7.916175842285156</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.277805209159851</v>
+        <v>-0.5923083424568176</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.196149587631226</v>
+        <v>2.888075351715088</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.097379207611084</v>
+        <v>0.7256504893302917</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.6636825203895569</v>
+        <v>-0.9940429329872131</v>
       </c>
       <c r="EM2" t="n">
-        <v>6.501088619232178</v>
+        <v>7.164669513702393</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.6826371550559998</v>
+        <v>0.04007264971733093</v>
       </c>
       <c r="EO2" t="n">
-        <v>5.24296760559082</v>
+        <v>5.906658172607422</v>
       </c>
       <c r="EP2" t="n">
-        <v>4.414672374725342</v>
+        <v>5.241153717041016</v>
       </c>
       <c r="EQ2" t="n">
-        <v>6.227794170379639</v>
+        <v>6.907931327819824</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.8901994824409485</v>
+        <v>-0.5347747206687927</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.2651905715465546</v>
+        <v>1.044511556625366</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.3561291992664337</v>
+        <v>0.1867117583751678</v>
       </c>
       <c r="EU2" t="n">
-        <v>-5.44597053527832</v>
+        <v>-4.914130687713623</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.927111744880676</v>
+        <v>2.569442272186279</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.712755680084229</v>
+        <v>-4.293869018554688</v>
       </c>
       <c r="EX2" t="n">
-        <v>-6.038225650787354</v>
+        <v>-5.595238208770752</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.548276960849762</v>
+        <v>0.4238509237766266</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-5.602252960205078</v>
+        <v>-6.48180627822876</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.53010630607605</v>
+        <v>0.6986303329467773</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.249132752418518</v>
+        <v>0.8483516573905945</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.7341020107269287</v>
+        <v>0.04615434259176254</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.18211030960083</v>
+        <v>-1.915323138237</v>
       </c>
       <c r="FE2" t="n">
-        <v>9.460467338562012</v>
+        <v>10.04447364807129</v>
       </c>
       <c r="FF2" t="n">
-        <v>-11.07342624664307</v>
+        <v>-10.93737411499023</v>
       </c>
       <c r="FG2" t="n">
-        <v>-5.028088569641113</v>
+        <v>-4.339504241943359</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.2059725224971771</v>
+        <v>-0.7192230820655823</v>
       </c>
       <c r="FI2" t="n">
-        <v>5.787538528442383</v>
+        <v>6.439888954162598</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.1071705743670464</v>
+        <v>0.06572921574115753</v>
       </c>
       <c r="FK2" t="n">
-        <v>-15.72082138061523</v>
+        <v>-14.62678623199463</v>
       </c>
       <c r="FL2" t="n">
-        <v>11.62256622314453</v>
+        <v>12.45121669769287</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.864376068115234</v>
+        <v>4.877636432647705</v>
       </c>
       <c r="FN2" t="n">
-        <v>-8.898386001586914</v>
+        <v>-8.406941413879395</v>
       </c>
       <c r="FO2" t="n">
-        <v>2.003054618835449</v>
+        <v>1.19943904876709</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8780175447463989</v>
+        <v>1.26567804813385</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.3488820493221283</v>
+        <v>-0.00131175946444273</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.849758744239807</v>
+        <v>1.444241166114807</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.168633103370667</v>
+        <v>1.087043404579163</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.998188853263855</v>
+        <v>1.668716669082642</v>
       </c>
       <c r="FU2" t="n">
-        <v>-3.119327306747437</v>
+        <v>-2.851013898849487</v>
       </c>
       <c r="FV2" t="n">
-        <v>-1.574230194091797</v>
+        <v>-0.7878309488296509</v>
       </c>
       <c r="FW2" t="n">
-        <v>3.689527750015259</v>
+        <v>4.210195064544678</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.3901810050010681</v>
+        <v>-0.138476237654686</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.7245820760726929</v>
+        <v>0.4224224090576172</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.52213454246521</v>
+        <v>-0.07853443175554276</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.71436071395874</v>
+        <v>5.1055588722229</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.494492381811142</v>
+        <v>0.1176237016916275</v>
       </c>
       <c r="GC2" t="n">
-        <v>9.78434944152832</v>
+        <v>9.21762752532959</v>
       </c>
       <c r="GD2" t="n">
-        <v>-3.600934028625488</v>
+        <v>-3.276050806045532</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3721847534179688</v>
+        <v>0.1589384227991104</v>
       </c>
       <c r="GF2" t="n">
-        <v>-1.080462336540222</v>
+        <v>-0.3673732578754425</v>
       </c>
       <c r="GG2" t="n">
-        <v>-3.535157918930054</v>
+        <v>-2.766509294509888</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.2714049816131592</v>
+        <v>-0.783422589302063</v>
       </c>
       <c r="GI2" t="n">
-        <v>-5.119760513305664</v>
+        <v>-4.522580623626709</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.545341432094574</v>
+        <v>-0.1026192158460617</v>
       </c>
       <c r="GK2" t="n">
-        <v>-1.897093296051025</v>
+        <v>-1.78237783908844</v>
       </c>
       <c r="GL2" t="n">
-        <v>3.499539375305176</v>
+        <v>2.680849313735962</v>
       </c>
       <c r="GM2" t="n">
-        <v>-5.385197162628174</v>
+        <v>-4.778234481811523</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.455680012702942</v>
+        <v>1.010087013244629</v>
       </c>
       <c r="GO2" t="n">
-        <v>11.44276428222656</v>
+        <v>11.91106128692627</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.6386027336120605</v>
+        <v>-0.894871711730957</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-1.536434054374695</v>
+        <v>-0.9384787678718567</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.2912455797195435</v>
+        <v>0.2390354424715042</v>
       </c>
       <c r="GS2" t="n">
-        <v>-3.292560338973999</v>
+        <v>-2.593914985656738</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.3059898018836975</v>
+        <v>-0.542462944984436</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.4652613699436188</v>
+        <v>-0.3173035681247711</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.8197922110557556</v>
+        <v>0.1350429654121399</v>
       </c>
       <c r="GW2" t="n">
-        <v>-7.662593841552734</v>
+        <v>-6.925190925598145</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.004707336425781</v>
+        <v>1.21894097328186</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.173786759376526</v>
+        <v>-1.420071363449097</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Classification/Equation/Public Sector Enterprises.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.717235326766968</v>
+        <v>2.262227773666382</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.14531230926514</v>
+        <v>-12.71646118164062</v>
       </c>
       <c r="D2" t="n">
-        <v>5.419808864593506</v>
+        <v>5.617039680480957</v>
       </c>
       <c r="E2" t="n">
-        <v>2.126830816268921</v>
+        <v>2.071826696395874</v>
       </c>
       <c r="F2" t="n">
-        <v>2.517261743545532</v>
+        <v>2.983095169067383</v>
       </c>
       <c r="G2" t="n">
-        <v>1.423230528831482</v>
+        <v>0.698573112487793</v>
       </c>
       <c r="H2" t="n">
-        <v>1.075187563896179</v>
+        <v>1.064436316490173</v>
       </c>
       <c r="I2" t="n">
-        <v>1.847128510475159</v>
+        <v>2.074948787689209</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.545629024505615</v>
+        <v>-3.988062620162964</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3158728182315826</v>
+        <v>0.06286749243736267</v>
       </c>
       <c r="L2" t="n">
-        <v>4.280662059783936</v>
+        <v>4.78313159942627</v>
       </c>
       <c r="M2" t="n">
-        <v>2.757398128509521</v>
+        <v>1.999856472015381</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8599892854690552</v>
+        <v>-0.7375490665435791</v>
       </c>
       <c r="O2" t="n">
-        <v>1.188148736953735</v>
+        <v>1.360108375549316</v>
       </c>
       <c r="P2" t="n">
-        <v>5.068671226501465</v>
+        <v>5.488909244537354</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.670919179916382</v>
+        <v>2.009861469268799</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7562786936759949</v>
+        <v>-0.09758571535348892</v>
       </c>
       <c r="S2" t="n">
-        <v>2.536948919296265</v>
+        <v>1.767846345901489</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.899833679199219</v>
+        <v>-1.58276355266571</v>
       </c>
       <c r="U2" t="n">
-        <v>-9.711127281188965</v>
+        <v>-9.231407165527344</v>
       </c>
       <c r="V2" t="n">
-        <v>1.526209473609924</v>
+        <v>1.916498899459839</v>
       </c>
       <c r="W2" t="n">
-        <v>-7.862513065338135</v>
+        <v>-7.38414478302002</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.5952373743057251</v>
+        <v>-0.2127662301063538</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.857489109039307</v>
+        <v>-5.374216556549072</v>
       </c>
       <c r="Z2" t="n">
-        <v>-6.33090353012085</v>
+        <v>-6.940933227539062</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6203550696372986</v>
+        <v>-0.2401170432567596</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.924597263336182</v>
+        <v>5.196587562561035</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.556487560272217</v>
+        <v>-3.135200023651123</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9432681798934937</v>
+        <v>-0.6849545836448669</v>
       </c>
       <c r="AE2" t="n">
-        <v>-11.1983118057251</v>
+        <v>-11.98793315887451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554451107978821</v>
+        <v>1.681903004646301</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.090808510780334</v>
+        <v>-1.868985891342163</v>
       </c>
       <c r="AH2" t="n">
-        <v>-21.72204780578613</v>
+        <v>-22.25318908691406</v>
       </c>
       <c r="AI2" t="n">
-        <v>-5.49900484085083</v>
+        <v>-4.993398666381836</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.875156044960022</v>
+        <v>-1.1707444190979</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.718349456787109</v>
+        <v>1.410647869110107</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.388261556625366</v>
+        <v>-1.942374229431152</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.722915887832642</v>
+        <v>3.010240077972412</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.81051921844482</v>
+        <v>13.10566902160645</v>
       </c>
       <c r="AO2" t="n">
-        <v>-4.577813625335693</v>
+        <v>-3.709410667419434</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.324498057365417</v>
+        <v>-0.7763215899467468</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-3.323093891143799</v>
+        <v>-2.91148853302002</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.932979106903076</v>
+        <v>5.984074592590332</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.277500152587891</v>
+        <v>-2.33582329750061</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.040770530700684</v>
+        <v>5.673872470855713</v>
       </c>
       <c r="AU2" t="n">
-        <v>-13.4080867767334</v>
+        <v>-13.24140453338623</v>
       </c>
       <c r="AV2" t="n">
-        <v>7.38862133026123</v>
+        <v>7.983720302581787</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.425990343093872</v>
+        <v>-2.656525373458862</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.9207962155342102</v>
+        <v>0.3884607553482056</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.62291145324707</v>
+        <v>7.650049209594727</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-11.58122634887695</v>
+        <v>-12.00521278381348</v>
       </c>
       <c r="BA2" t="n">
-        <v>-17.28660583496094</v>
+        <v>-16.86824798583984</v>
       </c>
       <c r="BB2" t="n">
-        <v>7.076066970825195</v>
+        <v>6.518681526184082</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.7423720359802246</v>
+        <v>1.264167070388794</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.6201868653297424</v>
+        <v>-0.3794333338737488</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.03369817510247231</v>
+        <v>0.6451995372772217</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.384639739990234</v>
+        <v>7.775579452514648</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.5661243796348572</v>
+        <v>-0.4493304491043091</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.6370967626571655</v>
+        <v>1.353953242301941</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5558757781982422</v>
+        <v>0.7934648394584656</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.472049951553345</v>
+        <v>-2.184317827224731</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1356202363967896</v>
+        <v>0.3200244605541229</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.4422287940979</v>
+        <v>1.355607628822327</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.909940719604492</v>
+        <v>5.28588342666626</v>
       </c>
       <c r="BN2" t="n">
-        <v>-14.96109008789062</v>
+        <v>-15.55035495758057</v>
       </c>
       <c r="BO2" t="n">
-        <v>-6.016554355621338</v>
+        <v>-6.27320384979248</v>
       </c>
       <c r="BP2" t="n">
-        <v>-6.754382610321045</v>
+        <v>-6.379837036132812</v>
       </c>
       <c r="BQ2" t="n">
-        <v>12.10449981689453</v>
+        <v>11.35572814941406</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.3657949268817902</v>
+        <v>-0.1341665536165237</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.280208587646484</v>
+        <v>-1.669360160827637</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.121464341878891</v>
+        <v>-0.3627079427242279</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.194145083427429</v>
+        <v>0.93778395652771</v>
       </c>
       <c r="BV2" t="n">
-        <v>-4.765251159667969</v>
+        <v>-4.414680004119873</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.069266319274902</v>
+        <v>-1.639648199081421</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.14196681976318</v>
+        <v>-10.65865707397461</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.3404628336429596</v>
+        <v>-0.735278308391571</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.078345537185669</v>
+        <v>-2.672700166702271</v>
       </c>
       <c r="CA2" t="n">
-        <v>-9.41184139251709</v>
+        <v>-9.68079662322998</v>
       </c>
       <c r="CB2" t="n">
-        <v>-4.195629596710205</v>
+        <v>-3.668587684631348</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.3438716530799866</v>
+        <v>-0.05870497971773148</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.1761414706707001</v>
+        <v>-0.4554466903209686</v>
       </c>
       <c r="CE2" t="n">
-        <v>10.30684661865234</v>
+        <v>11.09312438964844</v>
       </c>
       <c r="CF2" t="n">
-        <v>-10.46368789672852</v>
+        <v>-10.99523067474365</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.133205458521843</v>
+        <v>0.3863920271396637</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.752918243408203</v>
+        <v>6.221253871917725</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.937856674194336</v>
+        <v>-1.646757960319519</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-5.963994979858398</v>
+        <v>-6.137850284576416</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.646854519844055</v>
+        <v>-2.097868204116821</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.21869969367981</v>
+        <v>2.425901174545288</v>
       </c>
       <c r="CM2" t="n">
-        <v>-6.917747974395752</v>
+        <v>-6.921533584594727</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.4699725210666656</v>
+        <v>-1.035385966300964</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.087228059768677</v>
+        <v>-1.803636312484741</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.694495677947998</v>
+        <v>3.195444822311401</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.655789136886597</v>
+        <v>2.116712093353271</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.00477245869114995</v>
+        <v>-0.3851580023765564</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.444297671318054</v>
+        <v>1.46245014667511</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.464608430862427</v>
+        <v>-1.153684139251709</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.269718408584595</v>
+        <v>-2.880222082138062</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.018731355667114</v>
+        <v>2.508057355880737</v>
       </c>
       <c r="CW2" t="n">
-        <v>-7.432159423828125</v>
+        <v>-6.955518245697021</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.004482269287109</v>
+        <v>2.775663614273071</v>
       </c>
       <c r="CY2" t="n">
-        <v>-4.602017402648926</v>
+        <v>-4.913377285003662</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.5516920685768127</v>
+        <v>-0.3429124355316162</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.673909425735474</v>
+        <v>-2.949480772018433</v>
       </c>
       <c r="DB2" t="n">
-        <v>-14.1481409072876</v>
+        <v>-14.86980819702148</v>
       </c>
       <c r="DC2" t="n">
-        <v>3.522836208343506</v>
+        <v>3.138438940048218</v>
       </c>
       <c r="DD2" t="n">
-        <v>-17.08780670166016</v>
+        <v>-17.74827194213867</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.627060413360596</v>
+        <v>2.793320417404175</v>
       </c>
       <c r="DF2" t="n">
-        <v>-3.76154637336731</v>
+        <v>-4.20583963394165</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.556241989135742</v>
+        <v>-1.888108372688293</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.2768653929233551</v>
+        <v>-0.5290592908859253</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.1018951386213303</v>
+        <v>-0.1108366101980209</v>
       </c>
       <c r="DJ2" t="n">
-        <v>5.457236289978027</v>
+        <v>5.736569881439209</v>
       </c>
       <c r="DK2" t="n">
-        <v>-2.328485250473022</v>
+        <v>-3.048140287399292</v>
       </c>
       <c r="DL2" t="n">
-        <v>-2.672233819961548</v>
+        <v>-2.036578178405762</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.09517240524292</v>
+        <v>4.504476070404053</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.163011193275452</v>
+        <v>-0.9720044136047363</v>
       </c>
       <c r="DO2" t="n">
-        <v>-3.62878155708313</v>
+        <v>-3.202552556991577</v>
       </c>
       <c r="DP2" t="n">
-        <v>8.682632446289062</v>
+        <v>8.228827476501465</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.850988030433655</v>
+        <v>2.190551996231079</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.234959006309509</v>
+        <v>1.890116453170776</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.223753452301025</v>
+        <v>0.7791792750358582</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.7929052710533142</v>
+        <v>-1.45963728427887</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.766141772270203</v>
+        <v>-1.894827723503113</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.37224805355072</v>
+        <v>0.8317193388938904</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.480604887008667</v>
+        <v>-0.6934032440185547</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.275056481361389</v>
+        <v>-0.9850131869316101</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.055001258850098</v>
+        <v>5.821144580841064</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.5304664373397827</v>
+        <v>0.7359475493431091</v>
       </c>
       <c r="EA2" t="n">
-        <v>5.556424617767334</v>
+        <v>5.09119701385498</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.124853849411011</v>
+        <v>-0.9181277751922607</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.9227941036224365</v>
+        <v>-0.7023113369941711</v>
       </c>
       <c r="ED2" t="n">
-        <v>-4.60005521774292</v>
+        <v>-4.272097110748291</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.07039528340101242</v>
+        <v>-0.1380635052919388</v>
       </c>
       <c r="EF2" t="n">
-        <v>6.948026180267334</v>
+        <v>7.413341522216797</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.429429769515991</v>
+        <v>-2.216984033584595</v>
       </c>
       <c r="EH2" t="n">
-        <v>-7.916175842285156</v>
+        <v>-8.239715576171875</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.5923083424568176</v>
+        <v>-1.082277536392212</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.888075351715088</v>
+        <v>2.892728328704834</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.7256504893302917</v>
+        <v>0.8389817476272583</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.9940429329872131</v>
+        <v>-0.6928914785385132</v>
       </c>
       <c r="EM2" t="n">
-        <v>7.164669513702393</v>
+        <v>7.198106288909912</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.04007264971733093</v>
+        <v>0.7482770085334778</v>
       </c>
       <c r="EO2" t="n">
-        <v>5.906658172607422</v>
+        <v>5.908782005310059</v>
       </c>
       <c r="EP2" t="n">
-        <v>5.241153717041016</v>
+        <v>4.449305534362793</v>
       </c>
       <c r="EQ2" t="n">
-        <v>6.907931327819824</v>
+        <v>6.273543834686279</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.5347747206687927</v>
+        <v>-0.4351971745491028</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.044511556625366</v>
+        <v>0.7382841110229492</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1867117583751678</v>
+        <v>0.4815933406352997</v>
       </c>
       <c r="EU2" t="n">
-        <v>-4.914130687713623</v>
+        <v>-5.423892021179199</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.569442272186279</v>
+        <v>2.746458053588867</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.293869018554688</v>
+        <v>-4.459271430969238</v>
       </c>
       <c r="EX2" t="n">
-        <v>-5.595238208770752</v>
+        <v>-5.127992153167725</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.4238509237766266</v>
+        <v>0.4640960395336151</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-6.48180627822876</v>
+        <v>-5.508322238922119</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.6986303329467773</v>
+        <v>0.6191880702972412</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.8483516573905945</v>
+        <v>1.152183055877686</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.04615434259176254</v>
+        <v>-0.7288180589675903</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.915323138237</v>
+        <v>-1.883565425872803</v>
       </c>
       <c r="FE2" t="n">
-        <v>10.04447364807129</v>
+        <v>9.650600433349609</v>
       </c>
       <c r="FF2" t="n">
-        <v>-10.93737411499023</v>
+        <v>-10.45322895050049</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.339504241943359</v>
+        <v>-3.873857975006104</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.7192230820655823</v>
+        <v>-1.048812389373779</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.439888954162598</v>
+        <v>5.798380374908447</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.06572921574115753</v>
+        <v>-0.5627672672271729</v>
       </c>
       <c r="FK2" t="n">
-        <v>-14.62678623199463</v>
+        <v>-14.63040351867676</v>
       </c>
       <c r="FL2" t="n">
-        <v>12.45121669769287</v>
+        <v>13.04075908660889</v>
       </c>
       <c r="FM2" t="n">
-        <v>4.877636432647705</v>
+        <v>5.593319892883301</v>
       </c>
       <c r="FN2" t="n">
-        <v>-8.406941413879395</v>
+        <v>-8.708017349243164</v>
       </c>
       <c r="FO2" t="n">
-        <v>1.19943904876709</v>
+        <v>0.6005982756614685</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.26567804813385</v>
+        <v>1.096963167190552</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.00131175946444273</v>
+        <v>0.2916407287120819</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.444241166114807</v>
+        <v>1.768762230873108</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.087043404579163</v>
+        <v>1.381350517272949</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.668716669082642</v>
+        <v>1.885546565055847</v>
       </c>
       <c r="FU2" t="n">
-        <v>-2.851013898849487</v>
+        <v>-2.732272863388062</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.7878309488296509</v>
+        <v>-1.308410882949829</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.210195064544678</v>
+        <v>4.553967952728271</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.138476237654686</v>
+        <v>-0.8243945837020874</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.4224224090576172</v>
+        <v>0.4330536425113678</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.07853443175554276</v>
+        <v>0.3463720083236694</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.1055588722229</v>
+        <v>4.475216388702393</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.1176237016916275</v>
+        <v>0.919840931892395</v>
       </c>
       <c r="GC2" t="n">
-        <v>9.21762752532959</v>
+        <v>8.512845993041992</v>
       </c>
       <c r="GD2" t="n">
-        <v>-3.276050806045532</v>
+        <v>-3.789054393768311</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.1589384227991104</v>
+        <v>0.4234808385372162</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.3673732578754425</v>
+        <v>0.4071163535118103</v>
       </c>
       <c r="GG2" t="n">
-        <v>-2.766509294509888</v>
+        <v>-3.264272928237915</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.783422589302063</v>
+        <v>-0.1264415830373764</v>
       </c>
       <c r="GI2" t="n">
-        <v>-4.522580623626709</v>
+        <v>-5.196861267089844</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.1026192158460617</v>
+        <v>-0.01452131755650043</v>
       </c>
       <c r="GK2" t="n">
-        <v>-1.78237783908844</v>
+        <v>-1.293501019477844</v>
       </c>
       <c r="GL2" t="n">
-        <v>2.680849313735962</v>
+        <v>2.408827066421509</v>
       </c>
       <c r="GM2" t="n">
-        <v>-4.778234481811523</v>
+        <v>-4.997161865234375</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.010087013244629</v>
+        <v>0.3582477271556854</v>
       </c>
       <c r="GO2" t="n">
-        <v>11.91106128692627</v>
+        <v>11.98491954803467</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.894871711730957</v>
+        <v>-0.5659766793251038</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.9384787678718567</v>
+        <v>-0.5840224027633667</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.2390354424715042</v>
+        <v>-0.6262050271034241</v>
       </c>
       <c r="GS2" t="n">
-        <v>-2.593914985656738</v>
+        <v>-1.791257262229919</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.542462944984436</v>
+        <v>-1.156600713729858</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.3173035681247711</v>
+        <v>-0.08278393745422363</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.1350429654121399</v>
+        <v>-0.2521348893642426</v>
       </c>
       <c r="GW2" t="n">
-        <v>-6.925190925598145</v>
+        <v>-7.593873023986816</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.21894097328186</v>
+        <v>1.316759347915649</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.420071363449097</v>
+        <v>-1.183639883995056</v>
       </c>
     </row>
   </sheetData>
